--- a/list_eq.xlsx
+++ b/list_eq.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="12585"/>
@@ -12,12 +12,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">list_eq!$A$1:$C$294</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1191" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1762" uniqueCount="656">
   <si>
     <t>Komax Alpha 355 / 355 S</t>
   </si>
@@ -275,13 +275,1723 @@
   </si>
   <si>
     <t>*80000571</t>
+  </si>
+  <si>
+    <t>*80004369</t>
+  </si>
+  <si>
+    <t>*80001602</t>
+  </si>
+  <si>
+    <t>*80002685</t>
+  </si>
+  <si>
+    <t>*80002686</t>
+  </si>
+  <si>
+    <t>*80000117</t>
+  </si>
+  <si>
+    <t>*80001236</t>
+  </si>
+  <si>
+    <t>*80001237</t>
+  </si>
+  <si>
+    <t>*80001238</t>
+  </si>
+  <si>
+    <t>*80002483</t>
+  </si>
+  <si>
+    <t>*80002484</t>
+  </si>
+  <si>
+    <t>*80001842</t>
+  </si>
+  <si>
+    <t>*80001843</t>
+  </si>
+  <si>
+    <t>*80001996</t>
+  </si>
+  <si>
+    <t>*80001997</t>
+  </si>
+  <si>
+    <t>*80002100</t>
+  </si>
+  <si>
+    <t>*80002101</t>
+  </si>
+  <si>
+    <t>*80002256</t>
+  </si>
+  <si>
+    <t>*80002257</t>
+  </si>
+  <si>
+    <t>*80002291</t>
+  </si>
+  <si>
+    <t>*80002292</t>
+  </si>
+  <si>
+    <t>*80002353</t>
+  </si>
+  <si>
+    <t>*80002354</t>
+  </si>
+  <si>
+    <t>*80001870</t>
+  </si>
+  <si>
+    <t>*80001871</t>
+  </si>
+  <si>
+    <t>*80002904</t>
+  </si>
+  <si>
+    <t>*80002905</t>
+  </si>
+  <si>
+    <t>*80003447</t>
+  </si>
+  <si>
+    <t>*80003448</t>
+  </si>
+  <si>
+    <t>*80003939</t>
+  </si>
+  <si>
+    <t>*80003930</t>
+  </si>
+  <si>
+    <t>*80003031</t>
+  </si>
+  <si>
+    <t>*80004195</t>
+  </si>
+  <si>
+    <t>*80004196</t>
+  </si>
+  <si>
+    <t>*80004405</t>
+  </si>
+  <si>
+    <t>*80004404</t>
+  </si>
+  <si>
+    <t>*80001723</t>
+  </si>
+  <si>
+    <t>*80001844</t>
+  </si>
+  <si>
+    <t>*80001872</t>
+  </si>
+  <si>
+    <t>*80001873</t>
+  </si>
+  <si>
+    <t>*80002783</t>
+  </si>
+  <si>
+    <t>*80002784</t>
+  </si>
+  <si>
+    <t>*80002906</t>
+  </si>
+  <si>
+    <t>*80002907</t>
+  </si>
+  <si>
+    <t>*80003449</t>
+  </si>
+  <si>
+    <t>*80003450</t>
+  </si>
+  <si>
+    <t>*80003932</t>
+  </si>
+  <si>
+    <t>*80003933</t>
+  </si>
+  <si>
+    <t>*80004407</t>
+  </si>
+  <si>
+    <t>*80004406</t>
+  </si>
+  <si>
+    <t>*80004494</t>
+  </si>
+  <si>
+    <t>*80002073</t>
+  </si>
+  <si>
+    <t>*80001849</t>
+  </si>
+  <si>
+    <t>*80001952</t>
+  </si>
+  <si>
+    <t>*80002492</t>
+  </si>
+  <si>
+    <t>*80002000</t>
+  </si>
+  <si>
+    <t>*80002264</t>
+  </si>
+  <si>
+    <t>*80002351</t>
+  </si>
+  <si>
+    <t>*80002467</t>
+  </si>
+  <si>
+    <t>*80002715</t>
+  </si>
+  <si>
+    <t>*80003383</t>
+  </si>
+  <si>
+    <t>*80003473</t>
+  </si>
+  <si>
+    <t>*80003987</t>
+  </si>
+  <si>
+    <t>*80003986</t>
+  </si>
+  <si>
+    <t>*80004384</t>
+  </si>
+  <si>
+    <t>*80004563</t>
+  </si>
+  <si>
+    <t>*80004564</t>
+  </si>
+  <si>
+    <t>*80000067</t>
+  </si>
+  <si>
+    <t>*80002475</t>
+  </si>
+  <si>
+    <t>*80003487</t>
+  </si>
+  <si>
+    <t>*80002036</t>
+  </si>
+  <si>
+    <t>*80002293</t>
+  </si>
+  <si>
+    <t>*80002469</t>
+  </si>
+  <si>
+    <t>*80002258</t>
+  </si>
+  <si>
+    <t>*80001840</t>
+  </si>
+  <si>
+    <t>*80000227</t>
+  </si>
+  <si>
+    <t>*80004015</t>
+  </si>
+  <si>
+    <t>*80004589</t>
+  </si>
+  <si>
+    <t>*80000185</t>
+  </si>
+  <si>
+    <t>*80000123</t>
+  </si>
+  <si>
+    <t>*80002009</t>
+  </si>
+  <si>
+    <t>*80001690</t>
+  </si>
+  <si>
+    <t>*80003903</t>
+  </si>
+  <si>
+    <t>*80000287</t>
+  </si>
+  <si>
+    <t>*80002077</t>
+  </si>
+  <si>
+    <t>*80002488</t>
+  </si>
+  <si>
+    <t>*80003637</t>
+  </si>
+  <si>
+    <t>*80003519</t>
+  </si>
+  <si>
+    <t>*80001693</t>
+  </si>
+  <si>
+    <t>*80003520</t>
+  </si>
+  <si>
+    <t>*80004228</t>
+  </si>
+  <si>
+    <t>*80002647</t>
+  </si>
+  <si>
+    <t>*80002691</t>
+  </si>
+  <si>
+    <t>*80000025</t>
+  </si>
+  <si>
+    <t>*80002717</t>
+  </si>
+  <si>
+    <t>*80002716</t>
+  </si>
+  <si>
+    <t>*80004290</t>
+  </si>
+  <si>
+    <t>*80002148</t>
+  </si>
+  <si>
+    <t>*80001836</t>
+  </si>
+  <si>
+    <t>*80003531</t>
+  </si>
+  <si>
+    <t>*80003579</t>
+  </si>
+  <si>
+    <t>*80000046</t>
+  </si>
+  <si>
+    <t>*80001959</t>
+  </si>
+  <si>
+    <t>*80001960</t>
+  </si>
+  <si>
+    <t>*80003385</t>
+  </si>
+  <si>
+    <t>*80003386</t>
+  </si>
+  <si>
+    <t>*80002486</t>
+  </si>
+  <si>
+    <t>*80003384</t>
+  </si>
+  <si>
+    <t>*80000107</t>
+  </si>
+  <si>
+    <t>*80001639</t>
+  </si>
+  <si>
+    <t>*80000307</t>
+  </si>
+  <si>
+    <t>*80003814</t>
+  </si>
+  <si>
+    <t>*80002860</t>
+  </si>
+  <si>
+    <t>*80002114</t>
+  </si>
+  <si>
+    <t>*80002934</t>
+  </si>
+  <si>
+    <t>*80000229</t>
+  </si>
+  <si>
+    <t>*80001863</t>
+  </si>
+  <si>
+    <t>*80001864</t>
+  </si>
+  <si>
+    <t>*80001865</t>
+  </si>
+  <si>
+    <t>*80001866</t>
+  </si>
+  <si>
+    <t>*80001912</t>
+  </si>
+  <si>
+    <t>*80001913</t>
+  </si>
+  <si>
+    <t>*80001914</t>
+  </si>
+  <si>
+    <t>*80001915</t>
+  </si>
+  <si>
+    <t>*80001916</t>
+  </si>
+  <si>
+    <t>*80001917</t>
+  </si>
+  <si>
+    <t>*80001918</t>
+  </si>
+  <si>
+    <t>*80001919</t>
+  </si>
+  <si>
+    <t>*80001920</t>
+  </si>
+  <si>
+    <t>*80001921</t>
+  </si>
+  <si>
+    <t>*80001922</t>
+  </si>
+  <si>
+    <t>*80001923</t>
+  </si>
+  <si>
+    <t>*80001924</t>
+  </si>
+  <si>
+    <t>*80002048</t>
+  </si>
+  <si>
+    <t>*80002049</t>
+  </si>
+  <si>
+    <t>*80002050</t>
+  </si>
+  <si>
+    <t>*80002051</t>
+  </si>
+  <si>
+    <t>*80002052</t>
+  </si>
+  <si>
+    <t>*80002053</t>
+  </si>
+  <si>
+    <t>*80002054</t>
+  </si>
+  <si>
+    <t>*80002055</t>
+  </si>
+  <si>
+    <t>*80002056</t>
+  </si>
+  <si>
+    <t>*80002057</t>
+  </si>
+  <si>
+    <t>*80002058</t>
+  </si>
+  <si>
+    <t>*80002059</t>
+  </si>
+  <si>
+    <t>*80002060</t>
+  </si>
+  <si>
+    <t>*80002061</t>
+  </si>
+  <si>
+    <t>*80002062</t>
+  </si>
+  <si>
+    <t>*80002063</t>
+  </si>
+  <si>
+    <t>*80002064</t>
+  </si>
+  <si>
+    <t>*80002065</t>
+  </si>
+  <si>
+    <t>*80002066</t>
+  </si>
+  <si>
+    <t>*80002083</t>
+  </si>
+  <si>
+    <t>*80002084</t>
+  </si>
+  <si>
+    <t>*80002085</t>
+  </si>
+  <si>
+    <t>*80002086</t>
+  </si>
+  <si>
+    <t>*80002113</t>
+  </si>
+  <si>
+    <t>*80002115</t>
+  </si>
+  <si>
+    <t>*80002116</t>
+  </si>
+  <si>
+    <t>*80002117</t>
+  </si>
+  <si>
+    <t>*80002119</t>
+  </si>
+  <si>
+    <t>*80002120</t>
+  </si>
+  <si>
+    <t>*80002121</t>
+  </si>
+  <si>
+    <t>*80002122</t>
+  </si>
+  <si>
+    <t>*80002123</t>
+  </si>
+  <si>
+    <t>*80002124</t>
+  </si>
+  <si>
+    <t>*80002125</t>
+  </si>
+  <si>
+    <t>*80002126</t>
+  </si>
+  <si>
+    <t>*80002127</t>
+  </si>
+  <si>
+    <t>*80002128</t>
+  </si>
+  <si>
+    <t>*80002129</t>
+  </si>
+  <si>
+    <t>*80002191</t>
+  </si>
+  <si>
+    <t>*80002192</t>
+  </si>
+  <si>
+    <t>*80002193</t>
+  </si>
+  <si>
+    <t>*80002194</t>
+  </si>
+  <si>
+    <t>*80002195</t>
+  </si>
+  <si>
+    <t>*80002326</t>
+  </si>
+  <si>
+    <t>*80002327</t>
+  </si>
+  <si>
+    <t>*80002333</t>
+  </si>
+  <si>
+    <t>*80002067</t>
+  </si>
+  <si>
+    <t>*80002365</t>
+  </si>
+  <si>
+    <t>*80002376</t>
+  </si>
+  <si>
+    <t>*80002383</t>
+  </si>
+  <si>
+    <t>*80002384</t>
+  </si>
+  <si>
+    <t>*80002385</t>
+  </si>
+  <si>
+    <t>*80002386</t>
+  </si>
+  <si>
+    <t>*80002387</t>
+  </si>
+  <si>
+    <t>*80002388</t>
+  </si>
+  <si>
+    <t>*80002389</t>
+  </si>
+  <si>
+    <t>*80002390</t>
+  </si>
+  <si>
+    <t>*80002391</t>
+  </si>
+  <si>
+    <t>*80002392</t>
+  </si>
+  <si>
+    <t>*80002393</t>
+  </si>
+  <si>
+    <t>*80002394</t>
+  </si>
+  <si>
+    <t>*80002395</t>
+  </si>
+  <si>
+    <t>*80002396</t>
+  </si>
+  <si>
+    <t>*80002397</t>
+  </si>
+  <si>
+    <t>*80002398</t>
+  </si>
+  <si>
+    <t>*80002399</t>
+  </si>
+  <si>
+    <t>*80002400</t>
+  </si>
+  <si>
+    <t>*80002694</t>
+  </si>
+  <si>
+    <t>*80002695</t>
+  </si>
+  <si>
+    <t>*80002696</t>
+  </si>
+  <si>
+    <t>*80002697</t>
+  </si>
+  <si>
+    <t>*80002780</t>
+  </si>
+  <si>
+    <t>*80002832</t>
+  </si>
+  <si>
+    <t>*80002833</t>
+  </si>
+  <si>
+    <t>*80002836</t>
+  </si>
+  <si>
+    <t>*80002837</t>
+  </si>
+  <si>
+    <t>*80002838</t>
+  </si>
+  <si>
+    <t>*80002839</t>
+  </si>
+  <si>
+    <t>*80002698</t>
+  </si>
+  <si>
+    <t>*80003102</t>
+  </si>
+  <si>
+    <t>*80003103</t>
+  </si>
+  <si>
+    <t>*80003104</t>
+  </si>
+  <si>
+    <t>*80003105</t>
+  </si>
+  <si>
+    <t>*80003106</t>
+  </si>
+  <si>
+    <t>*80003107</t>
+  </si>
+  <si>
+    <t>*80003108</t>
+  </si>
+  <si>
+    <t>*80003109</t>
+  </si>
+  <si>
+    <t>*80003110</t>
+  </si>
+  <si>
+    <t>*80003111</t>
+  </si>
+  <si>
+    <t>*80003112</t>
+  </si>
+  <si>
+    <t>*80003113</t>
+  </si>
+  <si>
+    <t>*80003114</t>
+  </si>
+  <si>
+    <t>*80003115</t>
+  </si>
+  <si>
+    <t>*80003116</t>
+  </si>
+  <si>
+    <t>*80003117</t>
+  </si>
+  <si>
+    <t>*80003118</t>
+  </si>
+  <si>
+    <t>*80003119</t>
+  </si>
+  <si>
+    <t>*80003121</t>
+  </si>
+  <si>
+    <t>*80003122</t>
+  </si>
+  <si>
+    <t>*80003123</t>
+  </si>
+  <si>
+    <t>*80003124</t>
+  </si>
+  <si>
+    <t>*80003125</t>
+  </si>
+  <si>
+    <t>*80003126</t>
+  </si>
+  <si>
+    <t>*80003127</t>
+  </si>
+  <si>
+    <t>*80003128</t>
+  </si>
+  <si>
+    <t>*80003129</t>
+  </si>
+  <si>
+    <t>*80003130</t>
+  </si>
+  <si>
+    <t>*80003131</t>
+  </si>
+  <si>
+    <t>*80003132</t>
+  </si>
+  <si>
+    <t>*80003133</t>
+  </si>
+  <si>
+    <t>*80003134</t>
+  </si>
+  <si>
+    <t>*80003135</t>
+  </si>
+  <si>
+    <t>*80003136</t>
+  </si>
+  <si>
+    <t>*80003137</t>
+  </si>
+  <si>
+    <t>*80003138</t>
+  </si>
+  <si>
+    <t>*80003139</t>
+  </si>
+  <si>
+    <t>*80003141</t>
+  </si>
+  <si>
+    <t>*80003142</t>
+  </si>
+  <si>
+    <t>*80003143</t>
+  </si>
+  <si>
+    <t>*80003120</t>
+  </si>
+  <si>
+    <t>*80003144</t>
+  </si>
+  <si>
+    <t>*80003145</t>
+  </si>
+  <si>
+    <t>*80003146</t>
+  </si>
+  <si>
+    <t>*80003147</t>
+  </si>
+  <si>
+    <t>*80003148</t>
+  </si>
+  <si>
+    <t>*80003149</t>
+  </si>
+  <si>
+    <t>*80003150</t>
+  </si>
+  <si>
+    <t>*80003153</t>
+  </si>
+  <si>
+    <t>*80003156</t>
+  </si>
+  <si>
+    <t>*80003157</t>
+  </si>
+  <si>
+    <t>*80003158</t>
+  </si>
+  <si>
+    <t>*80003159</t>
+  </si>
+  <si>
+    <t>*80003160</t>
+  </si>
+  <si>
+    <t>*80003161</t>
+  </si>
+  <si>
+    <t>*80003169</t>
+  </si>
+  <si>
+    <t>*80003171</t>
+  </si>
+  <si>
+    <t>*80003173</t>
+  </si>
+  <si>
+    <t>*80003175</t>
+  </si>
+  <si>
+    <t>*80003177</t>
+  </si>
+  <si>
+    <t>*80003178</t>
+  </si>
+  <si>
+    <t>*80003539</t>
+  </si>
+  <si>
+    <t>*80003540</t>
+  </si>
+  <si>
+    <t>*80003541</t>
+  </si>
+  <si>
+    <t>*80003542</t>
+  </si>
+  <si>
+    <t>*80003543</t>
+  </si>
+  <si>
+    <t>*80003544</t>
+  </si>
+  <si>
+    <t>*80003545</t>
+  </si>
+  <si>
+    <t>*80003546</t>
+  </si>
+  <si>
+    <t>*80003547</t>
+  </si>
+  <si>
+    <t>*80003548</t>
+  </si>
+  <si>
+    <t>*80003549</t>
+  </si>
+  <si>
+    <t>*80003550</t>
+  </si>
+  <si>
+    <t>*80003551</t>
+  </si>
+  <si>
+    <t>*80003552</t>
+  </si>
+  <si>
+    <t>*80003553</t>
+  </si>
+  <si>
+    <t>*80003588</t>
+  </si>
+  <si>
+    <t>*80003589</t>
+  </si>
+  <si>
+    <t>*80003590</t>
+  </si>
+  <si>
+    <t>*80003591</t>
+  </si>
+  <si>
+    <t>*80003592</t>
+  </si>
+  <si>
+    <t>*80003593</t>
+  </si>
+  <si>
+    <t>*80003594</t>
+  </si>
+  <si>
+    <t>*80003155</t>
+  </si>
+  <si>
+    <t>*80003614</t>
+  </si>
+  <si>
+    <t>*80003685</t>
+  </si>
+  <si>
+    <t>*80003686</t>
+  </si>
+  <si>
+    <t>*80003687</t>
+  </si>
+  <si>
+    <t>*80003688</t>
+  </si>
+  <si>
+    <t>*80003689</t>
+  </si>
+  <si>
+    <t>*80003690</t>
+  </si>
+  <si>
+    <t>*80003691</t>
+  </si>
+  <si>
+    <t>*80003693</t>
+  </si>
+  <si>
+    <t>*80003694</t>
+  </si>
+  <si>
+    <t>*80003695</t>
+  </si>
+  <si>
+    <t>*80003696</t>
+  </si>
+  <si>
+    <t>*80003697</t>
+  </si>
+  <si>
+    <t>*80003711</t>
+  </si>
+  <si>
+    <t>*80003712</t>
+  </si>
+  <si>
+    <t>*80004218</t>
+  </si>
+  <si>
+    <t>*80004219</t>
+  </si>
+  <si>
+    <t>*80004220</t>
+  </si>
+  <si>
+    <t>*80004221</t>
+  </si>
+  <si>
+    <t>*80004222</t>
+  </si>
+  <si>
+    <t>*80004274</t>
+  </si>
+  <si>
+    <t>*80004275</t>
+  </si>
+  <si>
+    <t>*80004276</t>
+  </si>
+  <si>
+    <t>*80004277</t>
+  </si>
+  <si>
+    <t>*80004278</t>
+  </si>
+  <si>
+    <t>*80004279</t>
+  </si>
+  <si>
+    <t>*80004280</t>
+  </si>
+  <si>
+    <t>*80004281</t>
+  </si>
+  <si>
+    <t>*80004282</t>
+  </si>
+  <si>
+    <t>*80004283</t>
+  </si>
+  <si>
+    <t>*80004284</t>
+  </si>
+  <si>
+    <t>*80004326</t>
+  </si>
+  <si>
+    <t>*80004327</t>
+  </si>
+  <si>
+    <t>*80004328</t>
+  </si>
+  <si>
+    <t>*80004329</t>
+  </si>
+  <si>
+    <t>*80004330</t>
+  </si>
+  <si>
+    <t>*80004331</t>
+  </si>
+  <si>
+    <t>*80004332</t>
+  </si>
+  <si>
+    <t>*80004387</t>
+  </si>
+  <si>
+    <t>*80004411</t>
+  </si>
+  <si>
+    <t>*80004413</t>
+  </si>
+  <si>
+    <t>*80004414</t>
+  </si>
+  <si>
+    <t>*80004415</t>
+  </si>
+  <si>
+    <t>*80004417</t>
+  </si>
+  <si>
+    <t>*80004420</t>
+  </si>
+  <si>
+    <t>*80000585</t>
+  </si>
+  <si>
+    <t>*80000614</t>
+  </si>
+  <si>
+    <t>*80000621</t>
+  </si>
+  <si>
+    <t>*80000626</t>
+  </si>
+  <si>
+    <t>*80000637</t>
+  </si>
+  <si>
+    <t>*80000639</t>
+  </si>
+  <si>
+    <t>*80000640</t>
+  </si>
+  <si>
+    <t>*80000642</t>
+  </si>
+  <si>
+    <t>*80000644</t>
+  </si>
+  <si>
+    <t>*80000702</t>
+  </si>
+  <si>
+    <t>*80000705</t>
+  </si>
+  <si>
+    <t>*80000741</t>
+  </si>
+  <si>
+    <t>*80000763</t>
+  </si>
+  <si>
+    <t>*80000774</t>
+  </si>
+  <si>
+    <t>*80000781</t>
+  </si>
+  <si>
+    <t>*80000799</t>
+  </si>
+  <si>
+    <t>*80000805</t>
+  </si>
+  <si>
+    <t>*80000829</t>
+  </si>
+  <si>
+    <t>*80000892</t>
+  </si>
+  <si>
+    <t>*80000935</t>
+  </si>
+  <si>
+    <t>*80000937</t>
+  </si>
+  <si>
+    <t>*80000940</t>
+  </si>
+  <si>
+    <t>*80000951</t>
+  </si>
+  <si>
+    <t>*80000953</t>
+  </si>
+  <si>
+    <t>*80000998</t>
+  </si>
+  <si>
+    <t>*80001004</t>
+  </si>
+  <si>
+    <t>*80001011</t>
+  </si>
+  <si>
+    <t>*80001020</t>
+  </si>
+  <si>
+    <t>*80001021</t>
+  </si>
+  <si>
+    <t>*80001023</t>
+  </si>
+  <si>
+    <t>*80001036</t>
+  </si>
+  <si>
+    <t>*80001046</t>
+  </si>
+  <si>
+    <t>*80001197</t>
+  </si>
+  <si>
+    <t>*80001200</t>
+  </si>
+  <si>
+    <t>*80001201</t>
+  </si>
+  <si>
+    <t>*80001202</t>
+  </si>
+  <si>
+    <t>*80001207</t>
+  </si>
+  <si>
+    <t>*80001231</t>
+  </si>
+  <si>
+    <t>*80001241</t>
+  </si>
+  <si>
+    <t>*80001242</t>
+  </si>
+  <si>
+    <t>*80001401</t>
+  </si>
+  <si>
+    <t>*80001402</t>
+  </si>
+  <si>
+    <t>*80001435</t>
+  </si>
+  <si>
+    <t>*80001443</t>
+  </si>
+  <si>
+    <t>*80001445</t>
+  </si>
+  <si>
+    <t>*80001446</t>
+  </si>
+  <si>
+    <t>*80001447</t>
+  </si>
+  <si>
+    <t>*80001448</t>
+  </si>
+  <si>
+    <t>*80001449</t>
+  </si>
+  <si>
+    <t>*80001455</t>
+  </si>
+  <si>
+    <t>*80001456</t>
+  </si>
+  <si>
+    <t>*80001633</t>
+  </si>
+  <si>
+    <t>*80001695</t>
+  </si>
+  <si>
+    <t>*80001718</t>
+  </si>
+  <si>
+    <t>*80001707</t>
+  </si>
+  <si>
+    <t>*80001751</t>
+  </si>
+  <si>
+    <t>*80001753</t>
+  </si>
+  <si>
+    <t>*80001754</t>
+  </si>
+  <si>
+    <t>*80001755</t>
+  </si>
+  <si>
+    <t>*80001756</t>
+  </si>
+  <si>
+    <t>*80001757</t>
+  </si>
+  <si>
+    <t>*80001758</t>
+  </si>
+  <si>
+    <t>*80001759</t>
+  </si>
+  <si>
+    <t>*80001760</t>
+  </si>
+  <si>
+    <t>*80001762</t>
+  </si>
+  <si>
+    <t>*80001763</t>
+  </si>
+  <si>
+    <t>*80001765</t>
+  </si>
+  <si>
+    <t>*80001766</t>
+  </si>
+  <si>
+    <t>*80001767</t>
+  </si>
+  <si>
+    <t>*80001768</t>
+  </si>
+  <si>
+    <t>*80001769</t>
+  </si>
+  <si>
+    <t>*80001770</t>
+  </si>
+  <si>
+    <t>*80001771</t>
+  </si>
+  <si>
+    <t>*80001772</t>
+  </si>
+  <si>
+    <t>*80001773</t>
+  </si>
+  <si>
+    <t>*80001774</t>
+  </si>
+  <si>
+    <t>*80001775</t>
+  </si>
+  <si>
+    <t>*80001776</t>
+  </si>
+  <si>
+    <t>*80001777</t>
+  </si>
+  <si>
+    <t>*80001778</t>
+  </si>
+  <si>
+    <t>*80001779</t>
+  </si>
+  <si>
+    <t>*80001780</t>
+  </si>
+  <si>
+    <t>*80001781</t>
+  </si>
+  <si>
+    <t>*80001782</t>
+  </si>
+  <si>
+    <t>*80001783</t>
+  </si>
+  <si>
+    <t>*80001784</t>
+  </si>
+  <si>
+    <t>*80001785</t>
+  </si>
+  <si>
+    <t>*80001786</t>
+  </si>
+  <si>
+    <t>*80001787</t>
+  </si>
+  <si>
+    <t>*80001788</t>
+  </si>
+  <si>
+    <t>*80001789</t>
+  </si>
+  <si>
+    <t>*80001790</t>
+  </si>
+  <si>
+    <t>*80001791</t>
+  </si>
+  <si>
+    <t>*80001792</t>
+  </si>
+  <si>
+    <t>*80001793</t>
+  </si>
+  <si>
+    <t>*80001794</t>
+  </si>
+  <si>
+    <t>*80001795</t>
+  </si>
+  <si>
+    <t>*80001796</t>
+  </si>
+  <si>
+    <t>*80001798</t>
+  </si>
+  <si>
+    <t>*80001797</t>
+  </si>
+  <si>
+    <t>*80001799</t>
+  </si>
+  <si>
+    <t>*80001800</t>
+  </si>
+  <si>
+    <t>*80001801</t>
+  </si>
+  <si>
+    <t>*80001802</t>
+  </si>
+  <si>
+    <t>*80001803</t>
+  </si>
+  <si>
+    <t>*80001804</t>
+  </si>
+  <si>
+    <t>*80001805</t>
+  </si>
+  <si>
+    <t>*80001806</t>
+  </si>
+  <si>
+    <t>*80001807</t>
+  </si>
+  <si>
+    <t>*80001808</t>
+  </si>
+  <si>
+    <t>*80001809</t>
+  </si>
+  <si>
+    <t>*80001810</t>
+  </si>
+  <si>
+    <t>*80001811</t>
+  </si>
+  <si>
+    <t>*80001812</t>
+  </si>
+  <si>
+    <t>*80001816</t>
+  </si>
+  <si>
+    <t>*80001817</t>
+  </si>
+  <si>
+    <t>*80001818</t>
+  </si>
+  <si>
+    <t>*80001819</t>
+  </si>
+  <si>
+    <t>*80001821</t>
+  </si>
+  <si>
+    <t>*80001822</t>
+  </si>
+  <si>
+    <t>*80001835</t>
+  </si>
+  <si>
+    <t>*80001837</t>
+  </si>
+  <si>
+    <t>*80001970</t>
+  </si>
+  <si>
+    <t>*80001972</t>
+  </si>
+  <si>
+    <t>*80001973</t>
+  </si>
+  <si>
+    <t>*80001974</t>
+  </si>
+  <si>
+    <t>*80001976</t>
+  </si>
+  <si>
+    <t>*80001978</t>
+  </si>
+  <si>
+    <t>*80001979</t>
+  </si>
+  <si>
+    <t>*80001981</t>
+  </si>
+  <si>
+    <t>*80001982</t>
+  </si>
+  <si>
+    <t>*80001984</t>
+  </si>
+  <si>
+    <t>*80001985</t>
+  </si>
+  <si>
+    <t>*80002079</t>
+  </si>
+  <si>
+    <t>*80002094</t>
+  </si>
+  <si>
+    <t>*80002096</t>
+  </si>
+  <si>
+    <t>*80002097</t>
+  </si>
+  <si>
+    <t>*80002098</t>
+  </si>
+  <si>
+    <t>*80002130</t>
+  </si>
+  <si>
+    <t>*80002131</t>
+  </si>
+  <si>
+    <t>*80002132</t>
+  </si>
+  <si>
+    <t>*80002263</t>
+  </si>
+  <si>
+    <t>*80002334</t>
+  </si>
+  <si>
+    <t>*80002490</t>
+  </si>
+  <si>
+    <t>*80002603</t>
+  </si>
+  <si>
+    <t>*80002604</t>
+  </si>
+  <si>
+    <t>*80002605</t>
+  </si>
+  <si>
+    <t>*80002606</t>
+  </si>
+  <si>
+    <t>*80002607</t>
+  </si>
+  <si>
+    <t>*80002608</t>
+  </si>
+  <si>
+    <t>*80002611</t>
+  </si>
+  <si>
+    <t>*80002831</t>
+  </si>
+  <si>
+    <t>*80002845</t>
+  </si>
+  <si>
+    <t>*80002847</t>
+  </si>
+  <si>
+    <t>*80002848</t>
+  </si>
+  <si>
+    <t>*80002849</t>
+  </si>
+  <si>
+    <t>*80002856</t>
+  </si>
+  <si>
+    <t>*80002874</t>
+  </si>
+  <si>
+    <t>*80002898</t>
+  </si>
+  <si>
+    <t>*80002927</t>
+  </si>
+  <si>
+    <t>*80002936</t>
+  </si>
+  <si>
+    <t>*80002937</t>
+  </si>
+  <si>
+    <t>*80002938</t>
+  </si>
+  <si>
+    <t>*80002989</t>
+  </si>
+  <si>
+    <t>*80002992</t>
+  </si>
+  <si>
+    <t>*80003009</t>
+  </si>
+  <si>
+    <t>*80003014</t>
+  </si>
+  <si>
+    <t>*80003090</t>
+  </si>
+  <si>
+    <t>*80003091</t>
+  </si>
+  <si>
+    <t>*80003273</t>
+  </si>
+  <si>
+    <t>*80003281</t>
+  </si>
+  <si>
+    <t>*80003282</t>
+  </si>
+  <si>
+    <t>*80003283</t>
+  </si>
+  <si>
+    <t>*80003290</t>
+  </si>
+  <si>
+    <t>*80003303</t>
+  </si>
+  <si>
+    <t>*80003336</t>
+  </si>
+  <si>
+    <t>*80003406</t>
+  </si>
+  <si>
+    <t>*80003407</t>
+  </si>
+  <si>
+    <t>*80003432</t>
+  </si>
+  <si>
+    <t>*80003433</t>
+  </si>
+  <si>
+    <t>*80003532</t>
+  </si>
+  <si>
+    <t>*80003533</t>
+  </si>
+  <si>
+    <t>*80003534</t>
+  </si>
+  <si>
+    <t>*80003535</t>
+  </si>
+  <si>
+    <t>*80003536</t>
+  </si>
+  <si>
+    <t>*80003537</t>
+  </si>
+  <si>
+    <t>*80003562</t>
+  </si>
+  <si>
+    <t>*80003583</t>
+  </si>
+  <si>
+    <t>*80003628</t>
+  </si>
+  <si>
+    <t>*80003666</t>
+  </si>
+  <si>
+    <t>*80003671</t>
+  </si>
+  <si>
+    <t>*80003806</t>
+  </si>
+  <si>
+    <t>*80003807</t>
+  </si>
+  <si>
+    <t>*80003810</t>
+  </si>
+  <si>
+    <t>*80003811</t>
+  </si>
+  <si>
+    <t>*80003812</t>
+  </si>
+  <si>
+    <t>*80003813</t>
+  </si>
+  <si>
+    <t>*80003850</t>
+  </si>
+  <si>
+    <t>*80003994</t>
+  </si>
+  <si>
+    <t>*80004030</t>
+  </si>
+  <si>
+    <t>*80004033</t>
+  </si>
+  <si>
+    <t>*80004115</t>
+  </si>
+  <si>
+    <t>*80004116</t>
+  </si>
+  <si>
+    <t>*80004117</t>
+  </si>
+  <si>
+    <t>*80004129</t>
+  </si>
+  <si>
+    <t>*80004130</t>
+  </si>
+  <si>
+    <t>*80004131</t>
+  </si>
+  <si>
+    <t>*80004132</t>
+  </si>
+  <si>
+    <t>*80004133</t>
+  </si>
+  <si>
+    <t>*80004134</t>
+  </si>
+  <si>
+    <t>*80004135</t>
+  </si>
+  <si>
+    <t>*80004136</t>
+  </si>
+  <si>
+    <t>*80004137</t>
+  </si>
+  <si>
+    <t>*80004138</t>
+  </si>
+  <si>
+    <t>*80004139</t>
+  </si>
+  <si>
+    <t>*80004140</t>
+  </si>
+  <si>
+    <t>*80004141</t>
+  </si>
+  <si>
+    <t>*80004143</t>
+  </si>
+  <si>
+    <t>*80004144</t>
+  </si>
+  <si>
+    <t>*80004145</t>
+  </si>
+  <si>
+    <t>*80004146</t>
+  </si>
+  <si>
+    <t>*80004149</t>
+  </si>
+  <si>
+    <t>*80004151</t>
+  </si>
+  <si>
+    <t>*80004152</t>
+  </si>
+  <si>
+    <t>*80004153</t>
+  </si>
+  <si>
+    <t>*80004154</t>
+  </si>
+  <si>
+    <t>*80004159</t>
+  </si>
+  <si>
+    <t>*80004165</t>
+  </si>
+  <si>
+    <t>*80004166</t>
+  </si>
+  <si>
+    <t>*80002835</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1046,8 +2756,8 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
+    <cellStyle name="Звичайний" xfId="0" builtinId="0"/>
     <cellStyle name="Звичайний 2" xfId="1"/>
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1062,7 +2772,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Стандартна">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1100,7 +2810,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Стандартна">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1134,6 +2844,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1168,9 +2879,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Стандартна">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1343,21 +3055,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D588"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A552" workbookViewId="0">
-      <selection activeCell="H571" sqref="H571"/>
+    <sheetView tabSelected="1" topLeftCell="A205" workbookViewId="0">
+      <selection activeCell="B224" sqref="B224"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.85546875" style="65" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="35.28515625" style="33" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>2</v>
       </c>
@@ -1368,7 +3080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>3</v>
       </c>
@@ -1379,7 +3091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
@@ -1390,7 +3102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>5</v>
       </c>
@@ -1401,7 +3113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>6</v>
       </c>
@@ -1412,7 +3124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>7</v>
       </c>
@@ -1423,7 +3135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>8</v>
       </c>
@@ -1434,7 +3146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>9</v>
       </c>
@@ -1445,7 +3157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>10</v>
       </c>
@@ -1456,7 +3168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>11</v>
       </c>
@@ -1467,7 +3179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>12</v>
       </c>
@@ -1478,7 +3190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>13</v>
       </c>
@@ -1489,7 +3201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>14</v>
       </c>
@@ -1500,7 +3212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>15</v>
       </c>
@@ -1511,7 +3223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15.75" thickBot="1">
+    <row r="15" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>16</v>
       </c>
@@ -1522,3771 +3234,3771 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15.75" thickBot="1">
+    <row r="16" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="69">
-        <v>80004369</v>
+      <c r="B16" s="69" t="s">
+        <v>86</v>
       </c>
       <c r="C16" s="37" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15.75" thickBot="1">
+    <row r="17" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="69">
-        <v>80001602</v>
+      <c r="B17" s="69" t="s">
+        <v>87</v>
       </c>
       <c r="C17" s="38" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15.75" thickBot="1">
+    <row r="18" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="69">
-        <v>80002685</v>
+      <c r="B18" s="69" t="s">
+        <v>88</v>
       </c>
       <c r="C18" s="37" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15.75" thickBot="1">
+    <row r="19" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="69">
-        <v>80002686</v>
+      <c r="B19" s="69" t="s">
+        <v>89</v>
       </c>
       <c r="C19" s="38" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15.75" thickBot="1">
+    <row r="20" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="70">
-        <v>80000117</v>
+      <c r="B20" s="70" t="s">
+        <v>90</v>
       </c>
       <c r="C20" s="39" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="71">
-        <v>80001236</v>
+      <c r="B21" s="71" t="s">
+        <v>91</v>
       </c>
       <c r="C21" s="37" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="72">
-        <v>80001237</v>
+      <c r="B22" s="72" t="s">
+        <v>92</v>
       </c>
       <c r="C22" s="40" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="72">
-        <v>80001238</v>
+      <c r="B23" s="72" t="s">
+        <v>93</v>
       </c>
       <c r="C23" s="40" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="72">
-        <v>80002483</v>
+      <c r="B24" s="72" t="s">
+        <v>94</v>
       </c>
       <c r="C24" s="40" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="15.75" thickBot="1">
+    <row r="25" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="B25" s="73">
-        <v>80002484</v>
+      <c r="B25" s="73" t="s">
+        <v>95</v>
       </c>
       <c r="C25" s="41" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B26" s="71">
-        <v>80001842</v>
+      <c r="B26" s="71" t="s">
+        <v>96</v>
       </c>
       <c r="C26" s="37" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B27" s="72">
-        <v>80001843</v>
+      <c r="B27" s="72" t="s">
+        <v>97</v>
       </c>
       <c r="C27" s="40" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B28" s="72">
-        <v>80001996</v>
+      <c r="B28" s="72" t="s">
+        <v>98</v>
       </c>
       <c r="C28" s="40" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B29" s="72">
-        <v>80001997</v>
+      <c r="B29" s="72" t="s">
+        <v>99</v>
       </c>
       <c r="C29" s="40" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B30" s="72">
-        <v>80002100</v>
+      <c r="B30" s="72" t="s">
+        <v>100</v>
       </c>
       <c r="C30" s="40" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B31" s="72">
-        <v>80002101</v>
+      <c r="B31" s="72" t="s">
+        <v>101</v>
       </c>
       <c r="C31" s="40" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B32" s="72">
-        <v>80002256</v>
+      <c r="B32" s="72" t="s">
+        <v>102</v>
       </c>
       <c r="C32" s="40" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B33" s="72">
-        <v>80002257</v>
+      <c r="B33" s="72" t="s">
+        <v>103</v>
       </c>
       <c r="C33" s="40" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B34" s="72">
-        <v>80002291</v>
+      <c r="B34" s="72" t="s">
+        <v>104</v>
       </c>
       <c r="C34" s="40" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B35" s="72">
-        <v>80002292</v>
+      <c r="B35" s="72" t="s">
+        <v>105</v>
       </c>
       <c r="C35" s="40" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B36" s="72">
-        <v>80002353</v>
+      <c r="B36" s="72" t="s">
+        <v>106</v>
       </c>
       <c r="C36" s="40" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B37" s="72">
-        <v>80002354</v>
+      <c r="B37" s="72" t="s">
+        <v>107</v>
       </c>
       <c r="C37" s="40" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B38" s="72">
-        <v>80001870</v>
+      <c r="B38" s="72" t="s">
+        <v>108</v>
       </c>
       <c r="C38" s="40" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B39" s="72">
-        <v>80001871</v>
+      <c r="B39" s="72" t="s">
+        <v>109</v>
       </c>
       <c r="C39" s="40" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B40" s="72">
-        <v>80002904</v>
+      <c r="B40" s="72" t="s">
+        <v>110</v>
       </c>
       <c r="C40" s="40" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B41" s="72">
-        <v>80002905</v>
+      <c r="B41" s="72" t="s">
+        <v>111</v>
       </c>
       <c r="C41" s="40" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B42" s="72">
-        <v>80003447</v>
+      <c r="B42" s="72" t="s">
+        <v>112</v>
       </c>
       <c r="C42" s="40" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B43" s="72">
-        <v>80003448</v>
+      <c r="B43" s="72" t="s">
+        <v>113</v>
       </c>
       <c r="C43" s="40" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B44" s="72">
-        <v>80003939</v>
+      <c r="B44" s="72" t="s">
+        <v>114</v>
       </c>
       <c r="C44" s="40" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B45" s="72">
-        <v>80003930</v>
+      <c r="B45" s="72" t="s">
+        <v>115</v>
       </c>
       <c r="C45" s="40" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B46" s="72">
-        <v>80003031</v>
+      <c r="B46" s="72" t="s">
+        <v>116</v>
       </c>
       <c r="C46" s="40" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B47" s="72">
-        <v>80004195</v>
+      <c r="B47" s="72" t="s">
+        <v>117</v>
       </c>
       <c r="C47" s="40" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B48" s="72">
-        <v>80004196</v>
+      <c r="B48" s="72" t="s">
+        <v>118</v>
       </c>
       <c r="C48" s="40" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B49" s="72">
-        <v>80004405</v>
+      <c r="B49" s="72" t="s">
+        <v>119</v>
       </c>
       <c r="C49" s="40" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="15.75" thickBot="1">
+    <row r="50" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B50" s="74">
-        <v>80004404</v>
+      <c r="B50" s="74" t="s">
+        <v>120</v>
       </c>
       <c r="C50" s="38" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="15.75" thickBot="1">
+    <row r="51" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="B51" s="75">
-        <v>80001723</v>
+      <c r="B51" s="75" t="s">
+        <v>121</v>
       </c>
       <c r="C51" s="42" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B52" s="71">
-        <v>80001844</v>
+      <c r="B52" s="71" t="s">
+        <v>122</v>
       </c>
       <c r="C52" s="37" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B53" s="72">
-        <v>80001872</v>
+      <c r="B53" s="72" t="s">
+        <v>123</v>
       </c>
       <c r="C53" s="40" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B54" s="72">
-        <v>80001873</v>
+      <c r="B54" s="72" t="s">
+        <v>124</v>
       </c>
       <c r="C54" s="40" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B55" s="72">
-        <v>80002783</v>
+      <c r="B55" s="72" t="s">
+        <v>125</v>
       </c>
       <c r="C55" s="40" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B56" s="72">
-        <v>80002784</v>
+      <c r="B56" s="72" t="s">
+        <v>126</v>
       </c>
       <c r="C56" s="40" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B57" s="72">
-        <v>80002906</v>
+      <c r="B57" s="72" t="s">
+        <v>127</v>
       </c>
       <c r="C57" s="40" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B58" s="72">
-        <v>80002907</v>
+      <c r="B58" s="72" t="s">
+        <v>128</v>
       </c>
       <c r="C58" s="40" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B59" s="72">
-        <v>80003449</v>
+      <c r="B59" s="72" t="s">
+        <v>129</v>
       </c>
       <c r="C59" s="40" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B60" s="72">
-        <v>80003450</v>
+      <c r="B60" s="72" t="s">
+        <v>130</v>
       </c>
       <c r="C60" s="40" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B61" s="72">
-        <v>80003932</v>
+      <c r="B61" s="72" t="s">
+        <v>131</v>
       </c>
       <c r="C61" s="40" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B62" s="72">
-        <v>80003933</v>
+      <c r="B62" s="72" t="s">
+        <v>132</v>
       </c>
       <c r="C62" s="40" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B63" s="72">
-        <v>80004407</v>
+      <c r="B63" s="72" t="s">
+        <v>133</v>
       </c>
       <c r="C63" s="40" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="15.75" thickBot="1">
+    <row r="64" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B64" s="74">
-        <v>80004406</v>
+      <c r="B64" s="74" t="s">
+        <v>134</v>
       </c>
       <c r="C64" s="38" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="15.75" thickBot="1">
+    <row r="65" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B65" s="70">
-        <v>80004494</v>
+      <c r="B65" s="70" t="s">
+        <v>135</v>
       </c>
       <c r="C65" s="39" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B66" s="76">
-        <v>80002073</v>
+      <c r="B66" s="76" t="s">
+        <v>136</v>
       </c>
       <c r="C66" s="43" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B67" s="77">
-        <v>80001849</v>
+      <c r="B67" s="77" t="s">
+        <v>137</v>
       </c>
       <c r="C67" s="44" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B68" s="77">
-        <v>80001952</v>
+      <c r="B68" s="77" t="s">
+        <v>138</v>
       </c>
       <c r="C68" s="44" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B69" s="77">
-        <v>80002492</v>
+      <c r="B69" s="77" t="s">
+        <v>139</v>
       </c>
       <c r="C69" s="44" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B70" s="77">
-        <v>80002000</v>
+      <c r="B70" s="77" t="s">
+        <v>140</v>
       </c>
       <c r="C70" s="44" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B71" s="77">
-        <v>80002264</v>
+      <c r="B71" s="77" t="s">
+        <v>141</v>
       </c>
       <c r="C71" s="44" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B72" s="77">
-        <v>80002351</v>
+      <c r="B72" s="77" t="s">
+        <v>142</v>
       </c>
       <c r="C72" s="44" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B73" s="77">
-        <v>80002467</v>
+      <c r="B73" s="77" t="s">
+        <v>143</v>
       </c>
       <c r="C73" s="44" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B74" s="77">
-        <v>80002715</v>
+      <c r="B74" s="77" t="s">
+        <v>144</v>
       </c>
       <c r="C74" s="44" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B75" s="77">
-        <v>80003383</v>
+      <c r="B75" s="77" t="s">
+        <v>145</v>
       </c>
       <c r="C75" s="44" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B76" s="77">
-        <v>80003473</v>
+      <c r="B76" s="77" t="s">
+        <v>146</v>
       </c>
       <c r="C76" s="44" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B77" s="77">
-        <v>80003987</v>
+      <c r="B77" s="77" t="s">
+        <v>147</v>
       </c>
       <c r="C77" s="44" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B78" s="77">
-        <v>80003986</v>
+      <c r="B78" s="77" t="s">
+        <v>148</v>
       </c>
       <c r="C78" s="44" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B79" s="77">
-        <v>80004384</v>
+      <c r="B79" s="77" t="s">
+        <v>149</v>
       </c>
       <c r="C79" s="44" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B80" s="77">
-        <v>80004563</v>
+      <c r="B80" s="77" t="s">
+        <v>150</v>
       </c>
       <c r="C80" s="44" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B81" s="77">
-        <v>80004564</v>
+      <c r="B81" s="77" t="s">
+        <v>151</v>
       </c>
       <c r="C81" s="44" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="15.75" thickBot="1">
+    <row r="82" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B82" s="78">
-        <v>80000067</v>
+      <c r="B82" s="78" t="s">
+        <v>152</v>
       </c>
       <c r="C82" s="45" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="B83" s="79">
-        <v>80002475</v>
+      <c r="B83" s="79" t="s">
+        <v>153</v>
       </c>
       <c r="C83" s="46" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="B84" s="80">
-        <v>80003487</v>
+      <c r="B84" s="80" t="s">
+        <v>154</v>
       </c>
       <c r="C84" s="47" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="B85" s="80">
-        <v>80002036</v>
+      <c r="B85" s="80" t="s">
+        <v>155</v>
       </c>
       <c r="C85" s="47" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="B86" s="80">
-        <v>80002293</v>
+      <c r="B86" s="80" t="s">
+        <v>156</v>
       </c>
       <c r="C86" s="47" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="B87" s="80">
-        <v>80002469</v>
+      <c r="B87" s="80" t="s">
+        <v>157</v>
       </c>
       <c r="C87" s="47" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="B88" s="80">
-        <v>80002258</v>
+      <c r="B88" s="80" t="s">
+        <v>158</v>
       </c>
       <c r="C88" s="47" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="B89" s="80">
-        <v>80001840</v>
+      <c r="B89" s="80" t="s">
+        <v>159</v>
       </c>
       <c r="C89" s="47" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="B90" s="80">
-        <v>80000227</v>
+      <c r="B90" s="80" t="s">
+        <v>160</v>
       </c>
       <c r="C90" s="47" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="B91" s="80">
-        <v>80004015</v>
+      <c r="B91" s="80" t="s">
+        <v>161</v>
       </c>
       <c r="C91" s="47" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="92" spans="1:3" ht="15.75" thickBot="1">
+    <row r="92" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="B92" s="81">
-        <v>80004589</v>
+      <c r="B92" s="81" t="s">
+        <v>162</v>
       </c>
       <c r="C92" s="48" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="15.75" thickBot="1">
+    <row r="93" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B93" s="82">
-        <v>80000185</v>
+      <c r="B93" s="82" t="s">
+        <v>163</v>
       </c>
       <c r="C93" s="49" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="94" spans="1:3" ht="15.75" thickBot="1">
+    <row r="94" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B94" s="83">
-        <v>80000123</v>
+      <c r="B94" s="83" t="s">
+        <v>164</v>
       </c>
       <c r="C94" s="50" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="95" spans="1:3" ht="15.75" thickBot="1">
+    <row r="95" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="B95" s="83">
-        <v>80002009</v>
+      <c r="B95" s="83" t="s">
+        <v>165</v>
       </c>
       <c r="C95" s="51" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="96" spans="1:3" ht="15.75" thickBot="1">
+    <row r="96" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="B96" s="83">
-        <v>80001690</v>
+      <c r="B96" s="83" t="s">
+        <v>166</v>
       </c>
       <c r="C96" s="51" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="97" spans="1:3" ht="15.75" thickBot="1">
+    <row r="97" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="B97" s="83">
-        <v>80003903</v>
+      <c r="B97" s="83" t="s">
+        <v>167</v>
       </c>
       <c r="C97" s="52" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="98" spans="1:3" ht="15.75" thickBot="1">
+    <row r="98" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="B98" s="84">
-        <v>80000287</v>
+      <c r="B98" s="84" t="s">
+        <v>168</v>
       </c>
       <c r="C98" s="49" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="99" spans="1:3" ht="15.75" thickBot="1">
+    <row r="99" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B99" s="85">
-        <v>80002077</v>
+      <c r="B99" s="85" t="s">
+        <v>169</v>
       </c>
       <c r="C99" s="53" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="100" spans="1:3" ht="15.75" thickBot="1">
+    <row r="100" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B100" s="86">
-        <v>80002488</v>
+      <c r="B100" s="86" t="s">
+        <v>170</v>
       </c>
       <c r="C100" s="54" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="101" spans="1:3" ht="15.75" thickBot="1">
+    <row r="101" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B101" s="86">
-        <v>80003637</v>
+      <c r="B101" s="86" t="s">
+        <v>171</v>
       </c>
       <c r="C101" s="54" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="102" spans="1:3" ht="15.75" thickBot="1">
+    <row r="102" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B102" s="86">
-        <v>80003519</v>
+      <c r="B102" s="86" t="s">
+        <v>172</v>
       </c>
       <c r="C102" s="54" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="15.75" thickBot="1">
+    <row r="103" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B103" s="86">
-        <v>80001693</v>
+      <c r="B103" s="86" t="s">
+        <v>173</v>
       </c>
       <c r="C103" s="54" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="104" spans="1:3" ht="15.75" thickBot="1">
+    <row r="104" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B104" s="86">
-        <v>80003520</v>
+      <c r="B104" s="86" t="s">
+        <v>174</v>
       </c>
       <c r="C104" s="54" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="105" spans="1:3" ht="15.75" thickBot="1">
+    <row r="105" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B105" s="86">
-        <v>80004228</v>
+      <c r="B105" s="86" t="s">
+        <v>175</v>
       </c>
       <c r="C105" s="54" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="106" spans="1:3" ht="15.75" thickBot="1">
+    <row r="106" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B106" s="86">
-        <v>80002647</v>
+      <c r="B106" s="86" t="s">
+        <v>176</v>
       </c>
       <c r="C106" s="54" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="107" spans="1:3" ht="15.75" thickBot="1">
+    <row r="107" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B107" s="87">
-        <v>80002691</v>
+      <c r="B107" s="87" t="s">
+        <v>177</v>
       </c>
       <c r="C107" s="55" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="108" spans="1:3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="B108" s="88">
-        <v>80000025</v>
+      <c r="B108" s="88" t="s">
+        <v>178</v>
       </c>
       <c r="C108" s="56" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="109" spans="1:3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="B109" s="89">
-        <v>80002717</v>
+      <c r="B109" s="89" t="s">
+        <v>179</v>
       </c>
       <c r="C109" s="57" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="110" spans="1:3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="B110" s="89">
-        <v>80002716</v>
+      <c r="B110" s="89" t="s">
+        <v>180</v>
       </c>
       <c r="C110" s="57" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="111" spans="1:3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="B111" s="89">
-        <v>80004290</v>
+      <c r="B111" s="89" t="s">
+        <v>181</v>
       </c>
       <c r="C111" s="57" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="112" spans="1:3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="B112" s="89">
-        <v>80002148</v>
+      <c r="B112" s="89" t="s">
+        <v>182</v>
       </c>
       <c r="C112" s="57" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="113" spans="1:4">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="B113" s="89">
-        <v>80001836</v>
+      <c r="B113" s="89" t="s">
+        <v>183</v>
       </c>
       <c r="C113" s="57" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="114" spans="1:4">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="B114" s="89">
-        <v>80003531</v>
+      <c r="B114" s="89" t="s">
+        <v>184</v>
       </c>
       <c r="C114" s="57" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="15.75" thickBot="1">
+    <row r="115" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="B115" s="90">
-        <v>80003579</v>
+      <c r="B115" s="90" t="s">
+        <v>185</v>
       </c>
       <c r="C115" s="58" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="15.75" thickBot="1">
+    <row r="116" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B116" s="85">
-        <v>80000046</v>
+      <c r="B116" s="85" t="s">
+        <v>186</v>
       </c>
       <c r="C116" s="53" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="117" spans="1:4" ht="15.75" thickBot="1">
+    <row r="117" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B117" s="86">
-        <v>80001959</v>
+      <c r="B117" s="86" t="s">
+        <v>187</v>
       </c>
       <c r="C117" s="54" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="118" spans="1:4" ht="15.75" thickBot="1">
+    <row r="118" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B118" s="86">
-        <v>80001960</v>
+      <c r="B118" s="86" t="s">
+        <v>188</v>
       </c>
       <c r="C118" s="54" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="119" spans="1:4" ht="15.75" thickBot="1">
+    <row r="119" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B119" s="86">
-        <v>80003385</v>
+      <c r="B119" s="86" t="s">
+        <v>189</v>
       </c>
       <c r="C119" s="54" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="120" spans="1:4" ht="15.75" thickBot="1">
+    <row r="120" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B120" s="86">
-        <v>80003386</v>
+      <c r="B120" s="86" t="s">
+        <v>190</v>
       </c>
       <c r="C120" s="54" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="121" spans="1:4" ht="15.75" thickBot="1">
+    <row r="121" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B121" s="86">
-        <v>80002486</v>
+      <c r="B121" s="86" t="s">
+        <v>191</v>
       </c>
       <c r="C121" s="54" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="122" spans="1:4" ht="15.75" thickBot="1">
+    <row r="122" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B122" s="86">
-        <v>80003384</v>
+      <c r="B122" s="86" t="s">
+        <v>192</v>
       </c>
       <c r="C122" s="54" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="123" spans="1:4" ht="15.75" thickBot="1">
+    <row r="123" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B123" s="86">
-        <v>80000107</v>
+      <c r="B123" s="86" t="s">
+        <v>193</v>
       </c>
       <c r="C123" s="54" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="124" spans="1:4" ht="15.75" thickBot="1">
+    <row r="124" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B124" s="86">
-        <v>80001639</v>
+      <c r="B124" s="86" t="s">
+        <v>194</v>
       </c>
       <c r="C124" s="54" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="125" spans="1:4" ht="15.75" thickBot="1">
+    <row r="125" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B125" s="86">
-        <v>80000307</v>
+      <c r="B125" s="86" t="s">
+        <v>195</v>
       </c>
       <c r="C125" s="54" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="126" spans="1:4" ht="15.75" thickBot="1">
+    <row r="126" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B126" s="86">
-        <v>80003814</v>
+      <c r="B126" s="86" t="s">
+        <v>196</v>
       </c>
       <c r="C126" s="54" t="s">
         <v>46</v>
       </c>
       <c r="D126" s="2"/>
     </row>
-    <row r="127" spans="1:4" ht="15.75" thickBot="1">
+    <row r="127" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B127" s="86">
-        <v>80002860</v>
+      <c r="B127" s="86" t="s">
+        <v>197</v>
       </c>
       <c r="C127" s="54" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="128" spans="1:4" ht="15.75" thickBot="1">
+    <row r="128" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B128" s="86">
-        <v>80002114</v>
+      <c r="B128" s="86" t="s">
+        <v>198</v>
       </c>
       <c r="C128" s="54" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="129" spans="1:4" ht="15.75" thickBot="1">
+    <row r="129" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B129" s="86">
-        <v>80002934</v>
+      <c r="B129" s="86" t="s">
+        <v>199</v>
       </c>
       <c r="C129" s="54" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="130" spans="1:4" ht="15.75" thickBot="1">
+    <row r="130" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A130" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B130" s="87">
-        <v>80000229</v>
+      <c r="B130" s="87" t="s">
+        <v>200</v>
       </c>
       <c r="C130" s="55" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="131" spans="1:4">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="B131" s="91">
-        <v>80001863</v>
+      <c r="B131" s="91" t="s">
+        <v>201</v>
       </c>
       <c r="C131" s="59" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="132" spans="1:4">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="B132" s="92">
-        <v>80001864</v>
+      <c r="B132" s="92" t="s">
+        <v>202</v>
       </c>
       <c r="C132" s="60" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="133" spans="1:4">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="B133" s="92">
-        <v>80001865</v>
+      <c r="B133" s="92" t="s">
+        <v>203</v>
       </c>
       <c r="C133" s="60" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="134" spans="1:4">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="B134" s="92">
-        <v>80001866</v>
+      <c r="B134" s="92" t="s">
+        <v>204</v>
       </c>
       <c r="C134" s="60" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="135" spans="1:4">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="B135" s="92">
-        <v>80001912</v>
+      <c r="B135" s="92" t="s">
+        <v>205</v>
       </c>
       <c r="C135" s="60" t="s">
         <v>51</v>
       </c>
       <c r="D135" s="2"/>
     </row>
-    <row r="136" spans="1:4">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="B136" s="92">
-        <v>80001913</v>
+      <c r="B136" s="92" t="s">
+        <v>206</v>
       </c>
       <c r="C136" s="60" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="137" spans="1:4">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="B137" s="92">
-        <v>80001914</v>
+      <c r="B137" s="92" t="s">
+        <v>207</v>
       </c>
       <c r="C137" s="60" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="138" spans="1:4">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="B138" s="92">
-        <v>80001915</v>
+      <c r="B138" s="92" t="s">
+        <v>208</v>
       </c>
       <c r="C138" s="60" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="139" spans="1:4">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="B139" s="92">
-        <v>80001916</v>
+      <c r="B139" s="92" t="s">
+        <v>209</v>
       </c>
       <c r="C139" s="60" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="140" spans="1:4">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="B140" s="92">
-        <v>80001917</v>
+      <c r="B140" s="92" t="s">
+        <v>210</v>
       </c>
       <c r="C140" s="60" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="141" spans="1:4">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="B141" s="92">
-        <v>80001918</v>
+      <c r="B141" s="92" t="s">
+        <v>211</v>
       </c>
       <c r="C141" s="60" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="142" spans="1:4">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="B142" s="92">
-        <v>80001919</v>
+      <c r="B142" s="92" t="s">
+        <v>212</v>
       </c>
       <c r="C142" s="60" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="143" spans="1:4">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="B143" s="92">
-        <v>80001920</v>
+      <c r="B143" s="92" t="s">
+        <v>213</v>
       </c>
       <c r="C143" s="60" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="144" spans="1:4">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="B144" s="92">
-        <v>80001921</v>
+      <c r="B144" s="92" t="s">
+        <v>214</v>
       </c>
       <c r="C144" s="60" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="145" spans="1:3">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="B145" s="92">
-        <v>80001922</v>
+      <c r="B145" s="92" t="s">
+        <v>215</v>
       </c>
       <c r="C145" s="60" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="146" spans="1:3">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="B146" s="92">
-        <v>80001923</v>
+      <c r="B146" s="92" t="s">
+        <v>216</v>
       </c>
       <c r="C146" s="60" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="147" spans="1:3">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="B147" s="92">
-        <v>80001924</v>
+      <c r="B147" s="92" t="s">
+        <v>217</v>
       </c>
       <c r="C147" s="60" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="148" spans="1:3">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="B148" s="92">
-        <v>80002048</v>
+      <c r="B148" s="92" t="s">
+        <v>218</v>
       </c>
       <c r="C148" s="60" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="149" spans="1:3">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="B149" s="92">
-        <v>80002049</v>
+      <c r="B149" s="92" t="s">
+        <v>219</v>
       </c>
       <c r="C149" s="60" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="150" spans="1:3">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="B150" s="92">
-        <v>80002050</v>
+      <c r="B150" s="92" t="s">
+        <v>220</v>
       </c>
       <c r="C150" s="60" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="151" spans="1:3">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="B151" s="92">
-        <v>80002051</v>
+      <c r="B151" s="92" t="s">
+        <v>221</v>
       </c>
       <c r="C151" s="60" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="152" spans="1:3">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="B152" s="92">
-        <v>80002052</v>
+      <c r="B152" s="92" t="s">
+        <v>222</v>
       </c>
       <c r="C152" s="60" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="153" spans="1:3">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="B153" s="92">
-        <v>80002053</v>
+      <c r="B153" s="92" t="s">
+        <v>223</v>
       </c>
       <c r="C153" s="60" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="154" spans="1:3">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="B154" s="92">
-        <v>80002054</v>
+      <c r="B154" s="92" t="s">
+        <v>224</v>
       </c>
       <c r="C154" s="60" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="155" spans="1:3">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="B155" s="92">
-        <v>80002055</v>
+      <c r="B155" s="92" t="s">
+        <v>225</v>
       </c>
       <c r="C155" s="60" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="156" spans="1:3">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="B156" s="92">
-        <v>80002056</v>
+      <c r="B156" s="92" t="s">
+        <v>226</v>
       </c>
       <c r="C156" s="60" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="157" spans="1:3">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="B157" s="92">
-        <v>80002057</v>
+      <c r="B157" s="92" t="s">
+        <v>227</v>
       </c>
       <c r="C157" s="60" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="158" spans="1:3">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="B158" s="92">
-        <v>80002052</v>
+      <c r="B158" s="92" t="s">
+        <v>222</v>
       </c>
       <c r="C158" s="60" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="159" spans="1:3">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="B159" s="92">
-        <v>80002058</v>
+      <c r="B159" s="92" t="s">
+        <v>228</v>
       </c>
       <c r="C159" s="60" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="160" spans="1:3">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="B160" s="92">
-        <v>80002059</v>
+      <c r="B160" s="92" t="s">
+        <v>229</v>
       </c>
       <c r="C160" s="60" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="161" spans="1:3">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="B161" s="92">
-        <v>80002060</v>
+      <c r="B161" s="92" t="s">
+        <v>230</v>
       </c>
       <c r="C161" s="60" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="162" spans="1:3">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="B162" s="92">
-        <v>80002061</v>
+      <c r="B162" s="92" t="s">
+        <v>231</v>
       </c>
       <c r="C162" s="60" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="163" spans="1:3">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="B163" s="92">
-        <v>80002062</v>
+      <c r="B163" s="92" t="s">
+        <v>232</v>
       </c>
       <c r="C163" s="60" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="164" spans="1:3">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="B164" s="92">
-        <v>80002063</v>
+      <c r="B164" s="92" t="s">
+        <v>233</v>
       </c>
       <c r="C164" s="60" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="165" spans="1:3">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="B165" s="92">
-        <v>80002064</v>
+      <c r="B165" s="92" t="s">
+        <v>234</v>
       </c>
       <c r="C165" s="60" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="166" spans="1:3">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="B166" s="92">
-        <v>80002065</v>
+      <c r="B166" s="92" t="s">
+        <v>235</v>
       </c>
       <c r="C166" s="60" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="167" spans="1:3">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="B167" s="92">
-        <v>80002066</v>
+      <c r="B167" s="92" t="s">
+        <v>236</v>
       </c>
       <c r="C167" s="60" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="168" spans="1:3">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="B168" s="92">
-        <v>80002083</v>
+      <c r="B168" s="92" t="s">
+        <v>237</v>
       </c>
       <c r="C168" s="60" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="169" spans="1:3">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="B169" s="92">
-        <v>80002084</v>
+      <c r="B169" s="92" t="s">
+        <v>238</v>
       </c>
       <c r="C169" s="60" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="170" spans="1:3">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="B170" s="92">
-        <v>80002085</v>
+      <c r="B170" s="92" t="s">
+        <v>239</v>
       </c>
       <c r="C170" s="60" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="171" spans="1:3">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="B171" s="92">
-        <v>80002086</v>
+      <c r="B171" s="92" t="s">
+        <v>240</v>
       </c>
       <c r="C171" s="60" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="172" spans="1:3">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="B172" s="92">
-        <v>80002113</v>
+      <c r="B172" s="92" t="s">
+        <v>241</v>
       </c>
       <c r="C172" s="60" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="173" spans="1:3">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="B173" s="92">
-        <v>80002115</v>
+      <c r="B173" s="92" t="s">
+        <v>242</v>
       </c>
       <c r="C173" s="60" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="174" spans="1:3">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="B174" s="92">
-        <v>80002116</v>
+      <c r="B174" s="92" t="s">
+        <v>243</v>
       </c>
       <c r="C174" s="60" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="175" spans="1:3">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="B175" s="92">
-        <v>80002117</v>
+      <c r="B175" s="92" t="s">
+        <v>244</v>
       </c>
       <c r="C175" s="60" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="176" spans="1:3">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="B176" s="92">
-        <v>80002119</v>
+      <c r="B176" s="92" t="s">
+        <v>245</v>
       </c>
       <c r="C176" s="60" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="177" spans="1:3">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="B177" s="92">
-        <v>80002120</v>
+      <c r="B177" s="92" t="s">
+        <v>246</v>
       </c>
       <c r="C177" s="60" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="178" spans="1:3">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="B178" s="92">
-        <v>80002121</v>
+      <c r="B178" s="92" t="s">
+        <v>247</v>
       </c>
       <c r="C178" s="60" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="179" spans="1:3">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="B179" s="92">
-        <v>80002122</v>
+      <c r="B179" s="92" t="s">
+        <v>248</v>
       </c>
       <c r="C179" s="60" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="180" spans="1:3">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="B180" s="92">
-        <v>80002123</v>
+      <c r="B180" s="92" t="s">
+        <v>249</v>
       </c>
       <c r="C180" s="60" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="181" spans="1:3">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="B181" s="92">
-        <v>80002124</v>
+      <c r="B181" s="92" t="s">
+        <v>250</v>
       </c>
       <c r="C181" s="60" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="182" spans="1:3">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="B182" s="92">
-        <v>80002125</v>
+      <c r="B182" s="92" t="s">
+        <v>251</v>
       </c>
       <c r="C182" s="60" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="183" spans="1:3">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="B183" s="92">
-        <v>80002126</v>
+      <c r="B183" s="92" t="s">
+        <v>252</v>
       </c>
       <c r="C183" s="60" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="184" spans="1:3">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="B184" s="92">
-        <v>80002127</v>
+      <c r="B184" s="92" t="s">
+        <v>253</v>
       </c>
       <c r="C184" s="60" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="185" spans="1:3">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="B185" s="92">
-        <v>80002128</v>
+      <c r="B185" s="92" t="s">
+        <v>254</v>
       </c>
       <c r="C185" s="60" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="186" spans="1:3">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="B186" s="92">
-        <v>80002129</v>
+      <c r="B186" s="92" t="s">
+        <v>255</v>
       </c>
       <c r="C186" s="60" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="187" spans="1:3">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="B187" s="92">
-        <v>80002191</v>
+      <c r="B187" s="92" t="s">
+        <v>256</v>
       </c>
       <c r="C187" s="60" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="188" spans="1:3">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="B188" s="92">
-        <v>80002192</v>
+      <c r="B188" s="92" t="s">
+        <v>257</v>
       </c>
       <c r="C188" s="60" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="189" spans="1:3">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="B189" s="92">
-        <v>80002193</v>
+      <c r="B189" s="92" t="s">
+        <v>258</v>
       </c>
       <c r="C189" s="60" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="190" spans="1:3">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="B190" s="92">
-        <v>80002194</v>
+      <c r="B190" s="92" t="s">
+        <v>259</v>
       </c>
       <c r="C190" s="60" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="191" spans="1:3">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="B191" s="92">
-        <v>80002195</v>
+      <c r="B191" s="92" t="s">
+        <v>260</v>
       </c>
       <c r="C191" s="60" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="192" spans="1:3">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="B192" s="92">
-        <v>80002326</v>
+      <c r="B192" s="92" t="s">
+        <v>261</v>
       </c>
       <c r="C192" s="60" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="193" spans="1:3">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="B193" s="92">
-        <v>80002327</v>
+      <c r="B193" s="92" t="s">
+        <v>262</v>
       </c>
       <c r="C193" s="60" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="194" spans="1:3">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="B194" s="92">
-        <v>80002333</v>
+      <c r="B194" s="92" t="s">
+        <v>263</v>
       </c>
       <c r="C194" s="60" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="195" spans="1:3">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="B195" s="92">
-        <v>80002067</v>
+      <c r="B195" s="92" t="s">
+        <v>264</v>
       </c>
       <c r="C195" s="60" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="196" spans="1:3">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="B196" s="92">
-        <v>80002365</v>
+      <c r="B196" s="92" t="s">
+        <v>265</v>
       </c>
       <c r="C196" s="60" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="197" spans="1:3">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="B197" s="92">
-        <v>80002376</v>
+      <c r="B197" s="92" t="s">
+        <v>266</v>
       </c>
       <c r="C197" s="60" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="198" spans="1:3">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="B198" s="92">
-        <v>80002383</v>
+      <c r="B198" s="92" t="s">
+        <v>267</v>
       </c>
       <c r="C198" s="60" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="199" spans="1:3">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="B199" s="92">
-        <v>80002384</v>
+      <c r="B199" s="92" t="s">
+        <v>268</v>
       </c>
       <c r="C199" s="60" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="200" spans="1:3">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="B200" s="92">
-        <v>80002385</v>
+      <c r="B200" s="92" t="s">
+        <v>269</v>
       </c>
       <c r="C200" s="60" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="201" spans="1:3">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="B201" s="92">
-        <v>80002386</v>
+      <c r="B201" s="92" t="s">
+        <v>270</v>
       </c>
       <c r="C201" s="60" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="202" spans="1:3">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="B202" s="92">
-        <v>80002387</v>
+      <c r="B202" s="92" t="s">
+        <v>271</v>
       </c>
       <c r="C202" s="60" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="203" spans="1:3">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="B203" s="92">
-        <v>80002388</v>
+      <c r="B203" s="92" t="s">
+        <v>272</v>
       </c>
       <c r="C203" s="60" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="204" spans="1:3">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="B204" s="92">
-        <v>80002389</v>
+      <c r="B204" s="92" t="s">
+        <v>273</v>
       </c>
       <c r="C204" s="60" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="205" spans="1:3">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="B205" s="92">
-        <v>80002390</v>
+      <c r="B205" s="92" t="s">
+        <v>274</v>
       </c>
       <c r="C205" s="60" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="206" spans="1:3">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="B206" s="92">
-        <v>80002391</v>
+      <c r="B206" s="92" t="s">
+        <v>275</v>
       </c>
       <c r="C206" s="60" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="207" spans="1:3">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="B207" s="92">
-        <v>80002392</v>
+      <c r="B207" s="92" t="s">
+        <v>276</v>
       </c>
       <c r="C207" s="60" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="208" spans="1:3">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="B208" s="92">
-        <v>80002393</v>
+      <c r="B208" s="92" t="s">
+        <v>277</v>
       </c>
       <c r="C208" s="60" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="209" spans="1:3">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="B209" s="92">
-        <v>80002394</v>
+      <c r="B209" s="92" t="s">
+        <v>278</v>
       </c>
       <c r="C209" s="60" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="210" spans="1:3">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="B210" s="92">
-        <v>80002395</v>
+      <c r="B210" s="92" t="s">
+        <v>279</v>
       </c>
       <c r="C210" s="60" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="211" spans="1:3">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="B211" s="92">
-        <v>80002396</v>
+      <c r="B211" s="92" t="s">
+        <v>280</v>
       </c>
       <c r="C211" s="60" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="212" spans="1:3">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="B212" s="92">
-        <v>80002397</v>
+      <c r="B212" s="92" t="s">
+        <v>281</v>
       </c>
       <c r="C212" s="60" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="213" spans="1:3">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="B213" s="92">
-        <v>80002398</v>
+      <c r="B213" s="92" t="s">
+        <v>282</v>
       </c>
       <c r="C213" s="60" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="214" spans="1:3">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="B214" s="92">
-        <v>80002399</v>
+      <c r="B214" s="92" t="s">
+        <v>283</v>
       </c>
       <c r="C214" s="60" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="215" spans="1:3">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="B215" s="92">
-        <v>80002400</v>
+      <c r="B215" s="92" t="s">
+        <v>284</v>
       </c>
       <c r="C215" s="60" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="216" spans="1:3">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="B216" s="92">
-        <v>80002694</v>
+      <c r="B216" s="92" t="s">
+        <v>285</v>
       </c>
       <c r="C216" s="60" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="217" spans="1:3">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="B217" s="92">
-        <v>80002695</v>
+      <c r="B217" s="92" t="s">
+        <v>286</v>
       </c>
       <c r="C217" s="60" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="218" spans="1:3">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="B218" s="92">
-        <v>80002696</v>
+      <c r="B218" s="92" t="s">
+        <v>287</v>
       </c>
       <c r="C218" s="60" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="219" spans="1:3">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="B219" s="92">
-        <v>80002697</v>
+      <c r="B219" s="92" t="s">
+        <v>288</v>
       </c>
       <c r="C219" s="60" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="220" spans="1:3">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="B220" s="92">
-        <v>80002780</v>
+      <c r="B220" s="92" t="s">
+        <v>289</v>
       </c>
       <c r="C220" s="60" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="221" spans="1:3">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="B221" s="92">
-        <v>80002832</v>
+      <c r="B221" s="92" t="s">
+        <v>290</v>
       </c>
       <c r="C221" s="60" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="222" spans="1:3">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="B222" s="92">
-        <v>80002833</v>
+      <c r="B222" s="92" t="s">
+        <v>291</v>
       </c>
       <c r="C222" s="60" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="223" spans="1:3">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="B223" s="92">
-        <v>80002835</v>
+      <c r="B223" s="92" t="s">
+        <v>655</v>
       </c>
       <c r="C223" s="60" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="224" spans="1:3">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="B224" s="92">
-        <v>80002836</v>
+      <c r="B224" s="92" t="s">
+        <v>292</v>
       </c>
       <c r="C224" s="60" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="225" spans="1:3">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="B225" s="92">
-        <v>80002837</v>
+      <c r="B225" s="92" t="s">
+        <v>293</v>
       </c>
       <c r="C225" s="60" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="226" spans="1:3">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="B226" s="92">
-        <v>80002838</v>
+      <c r="B226" s="92" t="s">
+        <v>294</v>
       </c>
       <c r="C226" s="60" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="227" spans="1:3">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="B227" s="92">
-        <v>80002839</v>
+      <c r="B227" s="92" t="s">
+        <v>295</v>
       </c>
       <c r="C227" s="60" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="228" spans="1:3">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="B228" s="92">
-        <v>80002698</v>
+      <c r="B228" s="92" t="s">
+        <v>296</v>
       </c>
       <c r="C228" s="60" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="229" spans="1:3">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="B229" s="92">
-        <v>80003102</v>
+      <c r="B229" s="92" t="s">
+        <v>297</v>
       </c>
       <c r="C229" s="60" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="230" spans="1:3">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="B230" s="92">
-        <v>80003103</v>
+      <c r="B230" s="92" t="s">
+        <v>298</v>
       </c>
       <c r="C230" s="60" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="231" spans="1:3">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="B231" s="92">
-        <v>80003104</v>
+      <c r="B231" s="92" t="s">
+        <v>299</v>
       </c>
       <c r="C231" s="60" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="232" spans="1:3">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="B232" s="92">
-        <v>80003105</v>
+      <c r="B232" s="92" t="s">
+        <v>300</v>
       </c>
       <c r="C232" s="60" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="233" spans="1:3">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="B233" s="92">
-        <v>80003106</v>
+      <c r="B233" s="92" t="s">
+        <v>301</v>
       </c>
       <c r="C233" s="60" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="234" spans="1:3">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="B234" s="92">
-        <v>80003107</v>
+      <c r="B234" s="92" t="s">
+        <v>302</v>
       </c>
       <c r="C234" s="60" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="235" spans="1:3">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="B235" s="92">
-        <v>80003108</v>
+      <c r="B235" s="92" t="s">
+        <v>303</v>
       </c>
       <c r="C235" s="60" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="236" spans="1:3">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="B236" s="92">
-        <v>80003109</v>
+      <c r="B236" s="92" t="s">
+        <v>304</v>
       </c>
       <c r="C236" s="60" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="237" spans="1:3">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="B237" s="92">
-        <v>80003110</v>
+      <c r="B237" s="92" t="s">
+        <v>305</v>
       </c>
       <c r="C237" s="60" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="238" spans="1:3">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="B238" s="92">
-        <v>80003111</v>
+      <c r="B238" s="92" t="s">
+        <v>306</v>
       </c>
       <c r="C238" s="60" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="239" spans="1:3">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="B239" s="92">
-        <v>80003112</v>
+      <c r="B239" s="92" t="s">
+        <v>307</v>
       </c>
       <c r="C239" s="60" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="240" spans="1:3">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="B240" s="92">
-        <v>80003113</v>
+      <c r="B240" s="92" t="s">
+        <v>308</v>
       </c>
       <c r="C240" s="60" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="241" spans="1:3">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="B241" s="92">
-        <v>80003114</v>
+      <c r="B241" s="92" t="s">
+        <v>309</v>
       </c>
       <c r="C241" s="60" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="242" spans="1:3">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="B242" s="92">
-        <v>80003115</v>
+      <c r="B242" s="92" t="s">
+        <v>310</v>
       </c>
       <c r="C242" s="60" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="243" spans="1:3">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="B243" s="92">
-        <v>80003116</v>
+      <c r="B243" s="92" t="s">
+        <v>311</v>
       </c>
       <c r="C243" s="60" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="244" spans="1:3">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="B244" s="92">
-        <v>80003117</v>
+      <c r="B244" s="92" t="s">
+        <v>312</v>
       </c>
       <c r="C244" s="60" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="245" spans="1:3">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="B245" s="92">
-        <v>80003118</v>
+      <c r="B245" s="92" t="s">
+        <v>313</v>
       </c>
       <c r="C245" s="60" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="246" spans="1:3">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="B246" s="92">
-        <v>80003119</v>
+      <c r="B246" s="92" t="s">
+        <v>314</v>
       </c>
       <c r="C246" s="60" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="247" spans="1:3">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="B247" s="92">
-        <v>80003121</v>
+      <c r="B247" s="92" t="s">
+        <v>315</v>
       </c>
       <c r="C247" s="60" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="248" spans="1:3">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="B248" s="92">
-        <v>80003122</v>
+      <c r="B248" s="92" t="s">
+        <v>316</v>
       </c>
       <c r="C248" s="60" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="249" spans="1:3">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="B249" s="92">
-        <v>80003123</v>
+      <c r="B249" s="92" t="s">
+        <v>317</v>
       </c>
       <c r="C249" s="60" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="250" spans="1:3">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="B250" s="92">
-        <v>80003124</v>
+      <c r="B250" s="92" t="s">
+        <v>318</v>
       </c>
       <c r="C250" s="60" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="251" spans="1:3">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="B251" s="92">
-        <v>80003125</v>
+      <c r="B251" s="92" t="s">
+        <v>319</v>
       </c>
       <c r="C251" s="60" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="252" spans="1:3">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="B252" s="92">
-        <v>80003126</v>
+      <c r="B252" s="92" t="s">
+        <v>320</v>
       </c>
       <c r="C252" s="60" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="253" spans="1:3">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="B253" s="92">
-        <v>80003127</v>
+      <c r="B253" s="92" t="s">
+        <v>321</v>
       </c>
       <c r="C253" s="60" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="254" spans="1:3">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="B254" s="92">
-        <v>80003128</v>
+      <c r="B254" s="92" t="s">
+        <v>322</v>
       </c>
       <c r="C254" s="60" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="255" spans="1:3">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="B255" s="92">
-        <v>80003129</v>
+      <c r="B255" s="92" t="s">
+        <v>323</v>
       </c>
       <c r="C255" s="60" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="256" spans="1:3">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="B256" s="92">
-        <v>80003130</v>
+      <c r="B256" s="92" t="s">
+        <v>324</v>
       </c>
       <c r="C256" s="60" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="257" spans="1:3">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="B257" s="92">
-        <v>80003131</v>
+      <c r="B257" s="92" t="s">
+        <v>325</v>
       </c>
       <c r="C257" s="60" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="258" spans="1:3">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A258" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="B258" s="92">
-        <v>80003132</v>
+      <c r="B258" s="92" t="s">
+        <v>326</v>
       </c>
       <c r="C258" s="60" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="259" spans="1:3">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A259" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="B259" s="92">
-        <v>80003133</v>
+      <c r="B259" s="92" t="s">
+        <v>327</v>
       </c>
       <c r="C259" s="60" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="260" spans="1:3">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A260" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="B260" s="92">
-        <v>80003134</v>
+      <c r="B260" s="92" t="s">
+        <v>328</v>
       </c>
       <c r="C260" s="60" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="261" spans="1:3">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A261" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="B261" s="92">
-        <v>80003135</v>
+      <c r="B261" s="92" t="s">
+        <v>329</v>
       </c>
       <c r="C261" s="60" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="262" spans="1:3">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A262" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="B262" s="92">
-        <v>80003136</v>
+      <c r="B262" s="92" t="s">
+        <v>330</v>
       </c>
       <c r="C262" s="60" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="263" spans="1:3">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A263" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="B263" s="92">
-        <v>80003137</v>
+      <c r="B263" s="92" t="s">
+        <v>331</v>
       </c>
       <c r="C263" s="60" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="264" spans="1:3">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A264" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="B264" s="92">
-        <v>80003138</v>
+      <c r="B264" s="92" t="s">
+        <v>332</v>
       </c>
       <c r="C264" s="60" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="265" spans="1:3">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A265" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="B265" s="92">
-        <v>80003139</v>
+      <c r="B265" s="92" t="s">
+        <v>333</v>
       </c>
       <c r="C265" s="60" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="266" spans="1:3">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A266" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="B266" s="92">
-        <v>80003141</v>
+      <c r="B266" s="92" t="s">
+        <v>334</v>
       </c>
       <c r="C266" s="60" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="267" spans="1:3">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A267" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="B267" s="92">
-        <v>80003142</v>
+      <c r="B267" s="92" t="s">
+        <v>335</v>
       </c>
       <c r="C267" s="60" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="268" spans="1:3">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A268" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="B268" s="92">
-        <v>80003143</v>
+      <c r="B268" s="92" t="s">
+        <v>336</v>
       </c>
       <c r="C268" s="60" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="269" spans="1:3">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A269" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="B269" s="92">
-        <v>80003120</v>
+      <c r="B269" s="92" t="s">
+        <v>337</v>
       </c>
       <c r="C269" s="60" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="270" spans="1:3">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A270" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="B270" s="92">
-        <v>80003144</v>
+      <c r="B270" s="92" t="s">
+        <v>338</v>
       </c>
       <c r="C270" s="60" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="271" spans="1:3">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A271" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="B271" s="92">
-        <v>80003145</v>
+      <c r="B271" s="92" t="s">
+        <v>339</v>
       </c>
       <c r="C271" s="60" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="272" spans="1:3">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A272" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="B272" s="92">
-        <v>80003146</v>
+      <c r="B272" s="92" t="s">
+        <v>340</v>
       </c>
       <c r="C272" s="60" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="273" spans="1:3">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A273" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="B273" s="92">
-        <v>80003147</v>
+      <c r="B273" s="92" t="s">
+        <v>341</v>
       </c>
       <c r="C273" s="60" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="274" spans="1:3">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A274" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="B274" s="92">
-        <v>80003148</v>
+      <c r="B274" s="92" t="s">
+        <v>342</v>
       </c>
       <c r="C274" s="60" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="275" spans="1:3">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A275" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="B275" s="92">
-        <v>80003149</v>
+      <c r="B275" s="92" t="s">
+        <v>343</v>
       </c>
       <c r="C275" s="60" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="276" spans="1:3">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A276" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="B276" s="92">
-        <v>80003150</v>
+      <c r="B276" s="92" t="s">
+        <v>344</v>
       </c>
       <c r="C276" s="60" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="277" spans="1:3">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A277" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="B277" s="92">
-        <v>80003153</v>
+      <c r="B277" s="92" t="s">
+        <v>345</v>
       </c>
       <c r="C277" s="60" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="278" spans="1:3">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A278" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="B278" s="92">
-        <v>80003156</v>
+      <c r="B278" s="92" t="s">
+        <v>346</v>
       </c>
       <c r="C278" s="60" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="279" spans="1:3">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A279" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="B279" s="92">
-        <v>80003157</v>
+      <c r="B279" s="92" t="s">
+        <v>347</v>
       </c>
       <c r="C279" s="60" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="280" spans="1:3">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A280" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="B280" s="92">
-        <v>80003158</v>
+      <c r="B280" s="92" t="s">
+        <v>348</v>
       </c>
       <c r="C280" s="60" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="281" spans="1:3">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A281" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="B281" s="92">
-        <v>80003159</v>
+      <c r="B281" s="92" t="s">
+        <v>349</v>
       </c>
       <c r="C281" s="60" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="282" spans="1:3">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A282" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="B282" s="92">
-        <v>80003160</v>
+      <c r="B282" s="92" t="s">
+        <v>350</v>
       </c>
       <c r="C282" s="60" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="283" spans="1:3">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A283" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="B283" s="92">
-        <v>80003161</v>
+      <c r="B283" s="92" t="s">
+        <v>351</v>
       </c>
       <c r="C283" s="60" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="284" spans="1:3">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A284" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="B284" s="92">
-        <v>80003169</v>
+      <c r="B284" s="92" t="s">
+        <v>352</v>
       </c>
       <c r="C284" s="60" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="285" spans="1:3">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A285" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="B285" s="92">
-        <v>80003171</v>
+      <c r="B285" s="92" t="s">
+        <v>353</v>
       </c>
       <c r="C285" s="60" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="286" spans="1:3">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A286" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="B286" s="92">
-        <v>80003173</v>
+      <c r="B286" s="92" t="s">
+        <v>354</v>
       </c>
       <c r="C286" s="60" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="287" spans="1:3">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A287" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="B287" s="92">
-        <v>80003175</v>
+      <c r="B287" s="92" t="s">
+        <v>355</v>
       </c>
       <c r="C287" s="60" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="288" spans="1:3">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A288" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="B288" s="92">
-        <v>80003177</v>
+      <c r="B288" s="92" t="s">
+        <v>356</v>
       </c>
       <c r="C288" s="60" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="289" spans="1:3">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A289" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="B289" s="92">
-        <v>80003178</v>
+      <c r="B289" s="92" t="s">
+        <v>357</v>
       </c>
       <c r="C289" s="60" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="290" spans="1:3">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A290" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="B290" s="92">
-        <v>80003539</v>
+      <c r="B290" s="92" t="s">
+        <v>358</v>
       </c>
       <c r="C290" s="60" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="291" spans="1:3">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A291" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="B291" s="92">
-        <v>80003540</v>
+      <c r="B291" s="92" t="s">
+        <v>359</v>
       </c>
       <c r="C291" s="60" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="292" spans="1:3">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A292" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="B292" s="92">
-        <v>80003541</v>
+      <c r="B292" s="92" t="s">
+        <v>360</v>
       </c>
       <c r="C292" s="60" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="293" spans="1:3">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A293" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="B293" s="92">
-        <v>80003542</v>
+      <c r="B293" s="92" t="s">
+        <v>361</v>
       </c>
       <c r="C293" s="60" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="294" spans="1:3">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A294" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="B294" s="92">
-        <v>80003543</v>
+      <c r="B294" s="92" t="s">
+        <v>362</v>
       </c>
       <c r="C294" s="60" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="295" spans="1:3">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A295" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="B295" s="92">
-        <v>80003544</v>
+      <c r="B295" s="92" t="s">
+        <v>363</v>
       </c>
       <c r="C295" s="60" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="296" spans="1:3">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A296" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="B296" s="92">
-        <v>80003545</v>
+      <c r="B296" s="92" t="s">
+        <v>364</v>
       </c>
       <c r="C296" s="60" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="297" spans="1:3">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A297" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="B297" s="92">
-        <v>80003546</v>
+      <c r="B297" s="92" t="s">
+        <v>365</v>
       </c>
       <c r="C297" s="60" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="298" spans="1:3">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A298" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="B298" s="92">
-        <v>80003547</v>
+      <c r="B298" s="92" t="s">
+        <v>366</v>
       </c>
       <c r="C298" s="60" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="299" spans="1:3">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A299" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="B299" s="92">
-        <v>80003548</v>
+      <c r="B299" s="92" t="s">
+        <v>367</v>
       </c>
       <c r="C299" s="60" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="300" spans="1:3">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A300" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="B300" s="92">
-        <v>80003549</v>
+      <c r="B300" s="92" t="s">
+        <v>368</v>
       </c>
       <c r="C300" s="60" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="301" spans="1:3">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A301" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="B301" s="92">
-        <v>80003550</v>
+      <c r="B301" s="92" t="s">
+        <v>369</v>
       </c>
       <c r="C301" s="60" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="302" spans="1:3">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A302" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="B302" s="92">
-        <v>80003551</v>
+      <c r="B302" s="92" t="s">
+        <v>370</v>
       </c>
       <c r="C302" s="60" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="303" spans="1:3">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A303" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="B303" s="92">
-        <v>80003552</v>
+      <c r="B303" s="92" t="s">
+        <v>371</v>
       </c>
       <c r="C303" s="60" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="304" spans="1:3">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A304" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="B304" s="92">
-        <v>80003553</v>
+      <c r="B304" s="92" t="s">
+        <v>372</v>
       </c>
       <c r="C304" s="60" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="305" spans="1:3">
+    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A305" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="B305" s="92">
-        <v>80003588</v>
+      <c r="B305" s="92" t="s">
+        <v>373</v>
       </c>
       <c r="C305" s="60" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="306" spans="1:3">
+    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A306" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="B306" s="92">
-        <v>80003589</v>
+      <c r="B306" s="92" t="s">
+        <v>374</v>
       </c>
       <c r="C306" s="60" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="307" spans="1:3">
+    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A307" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="B307" s="92">
-        <v>80003590</v>
+      <c r="B307" s="92" t="s">
+        <v>375</v>
       </c>
       <c r="C307" s="60" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="308" spans="1:3">
+    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A308" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="B308" s="92">
-        <v>80003591</v>
+      <c r="B308" s="92" t="s">
+        <v>376</v>
       </c>
       <c r="C308" s="60" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="309" spans="1:3">
+    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A309" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="B309" s="92">
-        <v>80003592</v>
+      <c r="B309" s="92" t="s">
+        <v>377</v>
       </c>
       <c r="C309" s="60" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="310" spans="1:3">
+    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A310" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="B310" s="92">
-        <v>80003593</v>
+      <c r="B310" s="92" t="s">
+        <v>378</v>
       </c>
       <c r="C310" s="60" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="311" spans="1:3">
+    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A311" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="B311" s="92">
-        <v>80003594</v>
+      <c r="B311" s="92" t="s">
+        <v>379</v>
       </c>
       <c r="C311" s="60" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="312" spans="1:3">
+    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A312" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="B312" s="92">
-        <v>80003155</v>
+      <c r="B312" s="92" t="s">
+        <v>380</v>
       </c>
       <c r="C312" s="60" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="313" spans="1:3">
+    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A313" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="B313" s="92">
-        <v>80003614</v>
+      <c r="B313" s="92" t="s">
+        <v>381</v>
       </c>
       <c r="C313" s="60" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="314" spans="1:3">
+    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A314" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="B314" s="92">
-        <v>80003685</v>
+      <c r="B314" s="92" t="s">
+        <v>382</v>
       </c>
       <c r="C314" s="60" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="315" spans="1:3">
+    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A315" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="B315" s="92">
-        <v>80003686</v>
+      <c r="B315" s="92" t="s">
+        <v>383</v>
       </c>
       <c r="C315" s="60" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="316" spans="1:3">
+    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A316" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="B316" s="92">
-        <v>80003687</v>
+      <c r="B316" s="92" t="s">
+        <v>384</v>
       </c>
       <c r="C316" s="60" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="317" spans="1:3">
+    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A317" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="B317" s="92">
-        <v>80003688</v>
+      <c r="B317" s="92" t="s">
+        <v>385</v>
       </c>
       <c r="C317" s="60" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="318" spans="1:3">
+    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A318" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="B318" s="92">
-        <v>80003689</v>
+      <c r="B318" s="92" t="s">
+        <v>386</v>
       </c>
       <c r="C318" s="60" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="319" spans="1:3">
+    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A319" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="B319" s="92">
-        <v>80003690</v>
+      <c r="B319" s="92" t="s">
+        <v>387</v>
       </c>
       <c r="C319" s="60" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="320" spans="1:3">
+    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A320" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="B320" s="92">
-        <v>80003691</v>
+      <c r="B320" s="92" t="s">
+        <v>388</v>
       </c>
       <c r="C320" s="60" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="321" spans="1:3">
+    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A321" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="B321" s="92">
-        <v>80003693</v>
+      <c r="B321" s="92" t="s">
+        <v>389</v>
       </c>
       <c r="C321" s="60" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="322" spans="1:3">
+    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A322" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="B322" s="92">
-        <v>80003694</v>
+      <c r="B322" s="92" t="s">
+        <v>390</v>
       </c>
       <c r="C322" s="60" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="323" spans="1:3">
+    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A323" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="B323" s="92">
-        <v>80003695</v>
+      <c r="B323" s="92" t="s">
+        <v>391</v>
       </c>
       <c r="C323" s="60" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="324" spans="1:3">
+    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A324" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="B324" s="92">
-        <v>80003696</v>
+      <c r="B324" s="92" t="s">
+        <v>392</v>
       </c>
       <c r="C324" s="60" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="325" spans="1:3">
+    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A325" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="B325" s="92">
-        <v>80003697</v>
+      <c r="B325" s="92" t="s">
+        <v>393</v>
       </c>
       <c r="C325" s="60" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="326" spans="1:3">
+    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A326" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="B326" s="92">
-        <v>80003711</v>
+      <c r="B326" s="92" t="s">
+        <v>394</v>
       </c>
       <c r="C326" s="60" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="327" spans="1:3">
+    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A327" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="B327" s="92">
-        <v>80003712</v>
+      <c r="B327" s="92" t="s">
+        <v>395</v>
       </c>
       <c r="C327" s="60" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="328" spans="1:3">
+    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A328" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="B328" s="92">
-        <v>80004218</v>
+      <c r="B328" s="92" t="s">
+        <v>396</v>
       </c>
       <c r="C328" s="60" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="329" spans="1:3">
+    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A329" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="B329" s="92">
-        <v>80004219</v>
+      <c r="B329" s="92" t="s">
+        <v>397</v>
       </c>
       <c r="C329" s="60" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="330" spans="1:3">
+    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A330" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="B330" s="92">
-        <v>80004220</v>
+      <c r="B330" s="92" t="s">
+        <v>398</v>
       </c>
       <c r="C330" s="60" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="331" spans="1:3">
+    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A331" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="B331" s="92">
-        <v>80004221</v>
+      <c r="B331" s="92" t="s">
+        <v>399</v>
       </c>
       <c r="C331" s="60" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="332" spans="1:3">
+    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A332" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="B332" s="92">
-        <v>80004222</v>
+      <c r="B332" s="92" t="s">
+        <v>400</v>
       </c>
       <c r="C332" s="60" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="333" spans="1:3">
+    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A333" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="B333" s="92">
-        <v>80004274</v>
+      <c r="B333" s="92" t="s">
+        <v>401</v>
       </c>
       <c r="C333" s="60" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="334" spans="1:3">
+    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A334" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="B334" s="92">
-        <v>80004275</v>
+      <c r="B334" s="92" t="s">
+        <v>402</v>
       </c>
       <c r="C334" s="60" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="335" spans="1:3">
+    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A335" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="B335" s="92">
-        <v>80004276</v>
+      <c r="B335" s="92" t="s">
+        <v>403</v>
       </c>
       <c r="C335" s="60" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="336" spans="1:3">
+    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A336" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="B336" s="92">
-        <v>80004277</v>
+      <c r="B336" s="92" t="s">
+        <v>404</v>
       </c>
       <c r="C336" s="60" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="337" spans="1:3">
+    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A337" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="B337" s="92">
-        <v>80004278</v>
+      <c r="B337" s="92" t="s">
+        <v>405</v>
       </c>
       <c r="C337" s="60" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="338" spans="1:3">
+    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A338" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="B338" s="92">
-        <v>80004279</v>
+      <c r="B338" s="92" t="s">
+        <v>406</v>
       </c>
       <c r="C338" s="60" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="339" spans="1:3">
+    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A339" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="B339" s="92">
-        <v>80004280</v>
+      <c r="B339" s="92" t="s">
+        <v>407</v>
       </c>
       <c r="C339" s="60" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="340" spans="1:3">
+    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A340" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="B340" s="92">
-        <v>80004281</v>
+      <c r="B340" s="92" t="s">
+        <v>408</v>
       </c>
       <c r="C340" s="60" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="341" spans="1:3">
+    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A341" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="B341" s="92">
-        <v>80004282</v>
+      <c r="B341" s="92" t="s">
+        <v>409</v>
       </c>
       <c r="C341" s="60" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="342" spans="1:3">
+    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A342" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="B342" s="92">
-        <v>80004283</v>
+      <c r="B342" s="92" t="s">
+        <v>410</v>
       </c>
       <c r="C342" s="60" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="343" spans="1:3">
+    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A343" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="B343" s="92">
-        <v>80004284</v>
+      <c r="B343" s="92" t="s">
+        <v>411</v>
       </c>
       <c r="C343" s="60" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="344" spans="1:3">
+    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A344" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="B344" s="92">
-        <v>80004326</v>
+      <c r="B344" s="92" t="s">
+        <v>412</v>
       </c>
       <c r="C344" s="60" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="345" spans="1:3">
+    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A345" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="B345" s="92">
-        <v>80004327</v>
+      <c r="B345" s="92" t="s">
+        <v>413</v>
       </c>
       <c r="C345" s="60" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="346" spans="1:3">
+    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A346" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="B346" s="92">
-        <v>80004328</v>
+      <c r="B346" s="92" t="s">
+        <v>414</v>
       </c>
       <c r="C346" s="60" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="347" spans="1:3">
+    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A347" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="B347" s="92">
-        <v>80004329</v>
+      <c r="B347" s="92" t="s">
+        <v>415</v>
       </c>
       <c r="C347" s="60" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="348" spans="1:3">
+    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A348" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="B348" s="92">
-        <v>80004330</v>
+      <c r="B348" s="92" t="s">
+        <v>416</v>
       </c>
       <c r="C348" s="60" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="349" spans="1:3">
+    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A349" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="B349" s="92">
-        <v>80004331</v>
+      <c r="B349" s="92" t="s">
+        <v>417</v>
       </c>
       <c r="C349" s="60" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="350" spans="1:3">
+    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A350" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="B350" s="92">
-        <v>80004332</v>
+      <c r="B350" s="92" t="s">
+        <v>418</v>
       </c>
       <c r="C350" s="60" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="351" spans="1:3">
+    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A351" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="B351" s="92">
-        <v>80004387</v>
+      <c r="B351" s="92" t="s">
+        <v>419</v>
       </c>
       <c r="C351" s="60" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="352" spans="1:3">
+    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A352" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="B352" s="92">
-        <v>80004411</v>
+      <c r="B352" s="92" t="s">
+        <v>420</v>
       </c>
       <c r="C352" s="60" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="353" spans="1:3">
+    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A353" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="B353" s="92">
-        <v>80004413</v>
+      <c r="B353" s="92" t="s">
+        <v>421</v>
       </c>
       <c r="C353" s="60" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="354" spans="1:3">
+    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A354" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="B354" s="92">
-        <v>80004414</v>
+      <c r="B354" s="92" t="s">
+        <v>422</v>
       </c>
       <c r="C354" s="60" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="355" spans="1:3">
+    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A355" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="B355" s="92">
-        <v>80004415</v>
+      <c r="B355" s="92" t="s">
+        <v>423</v>
       </c>
       <c r="C355" s="60" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="356" spans="1:3">
+    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A356" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="B356" s="92">
-        <v>80004417</v>
+      <c r="B356" s="92" t="s">
+        <v>424</v>
       </c>
       <c r="C356" s="60" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="357" spans="1:3" ht="15.75" thickBot="1">
+    <row r="357" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A357" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="B357" s="93">
-        <v>80004420</v>
+      <c r="B357" s="93" t="s">
+        <v>425</v>
       </c>
       <c r="C357" s="61" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="358" spans="1:3">
+    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A358" s="30" t="s">
         <v>66</v>
       </c>
@@ -5297,2524 +7009,2524 @@
         <v>52</v>
       </c>
     </row>
-    <row r="359" spans="1:3">
+    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A359" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="B359" s="95">
-        <v>80000585</v>
+      <c r="B359" s="95" t="s">
+        <v>426</v>
       </c>
       <c r="C359" s="63" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="360" spans="1:3">
+    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A360" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="B360" s="95">
-        <v>80000614</v>
+      <c r="B360" s="95" t="s">
+        <v>427</v>
       </c>
       <c r="C360" s="63" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="361" spans="1:3">
+    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A361" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="B361" s="95">
-        <v>80000621</v>
+      <c r="B361" s="95" t="s">
+        <v>428</v>
       </c>
       <c r="C361" s="63" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="362" spans="1:3">
+    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A362" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="B362" s="95">
-        <v>80000626</v>
+      <c r="B362" s="95" t="s">
+        <v>429</v>
       </c>
       <c r="C362" s="63" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="363" spans="1:3">
+    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A363" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="B363" s="95">
-        <v>80000637</v>
+      <c r="B363" s="95" t="s">
+        <v>430</v>
       </c>
       <c r="C363" s="63" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="364" spans="1:3">
+    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A364" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="B364" s="95">
-        <v>80000639</v>
+      <c r="B364" s="95" t="s">
+        <v>431</v>
       </c>
       <c r="C364" s="63" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="365" spans="1:3">
+    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A365" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="B365" s="95">
-        <v>80000640</v>
+      <c r="B365" s="95" t="s">
+        <v>432</v>
       </c>
       <c r="C365" s="63" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="366" spans="1:3">
+    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A366" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="B366" s="95">
-        <v>80000642</v>
+      <c r="B366" s="95" t="s">
+        <v>433</v>
       </c>
       <c r="C366" s="63" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="367" spans="1:3">
+    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A367" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="B367" s="95">
-        <v>80000644</v>
+      <c r="B367" s="95" t="s">
+        <v>434</v>
       </c>
       <c r="C367" s="63" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="368" spans="1:3">
+    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A368" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="B368" s="95">
-        <v>80000702</v>
+      <c r="B368" s="95" t="s">
+        <v>435</v>
       </c>
       <c r="C368" s="63" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="369" spans="1:3">
+    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A369" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="B369" s="95">
-        <v>80000705</v>
+      <c r="B369" s="95" t="s">
+        <v>436</v>
       </c>
       <c r="C369" s="63" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="370" spans="1:3">
+    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A370" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="B370" s="95">
-        <v>80000741</v>
+      <c r="B370" s="95" t="s">
+        <v>437</v>
       </c>
       <c r="C370" s="63" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="371" spans="1:3">
+    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A371" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="B371" s="95">
-        <v>80000763</v>
+      <c r="B371" s="95" t="s">
+        <v>438</v>
       </c>
       <c r="C371" s="63" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="372" spans="1:3">
+    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A372" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="B372" s="95">
-        <v>80000774</v>
+      <c r="B372" s="95" t="s">
+        <v>439</v>
       </c>
       <c r="C372" s="63" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="373" spans="1:3">
+    <row r="373" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A373" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="B373" s="95">
-        <v>80000781</v>
+      <c r="B373" s="95" t="s">
+        <v>440</v>
       </c>
       <c r="C373" s="63" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="374" spans="1:3">
+    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A374" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="B374" s="95">
-        <v>80000799</v>
+      <c r="B374" s="95" t="s">
+        <v>441</v>
       </c>
       <c r="C374" s="63" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="375" spans="1:3">
+    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A375" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="B375" s="95">
-        <v>80000805</v>
+      <c r="B375" s="95" t="s">
+        <v>442</v>
       </c>
       <c r="C375" s="63" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="376" spans="1:3">
+    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A376" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="B376" s="95">
-        <v>80000829</v>
+      <c r="B376" s="95" t="s">
+        <v>443</v>
       </c>
       <c r="C376" s="63" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="377" spans="1:3">
+    <row r="377" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A377" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="B377" s="95">
-        <v>80000892</v>
+      <c r="B377" s="95" t="s">
+        <v>444</v>
       </c>
       <c r="C377" s="63" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="378" spans="1:3">
+    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A378" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="B378" s="95">
-        <v>80000935</v>
+      <c r="B378" s="95" t="s">
+        <v>445</v>
       </c>
       <c r="C378" s="63" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="379" spans="1:3">
+    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A379" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="B379" s="95">
-        <v>80000937</v>
+      <c r="B379" s="95" t="s">
+        <v>446</v>
       </c>
       <c r="C379" s="63" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="380" spans="1:3">
+    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A380" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="B380" s="95">
-        <v>80000940</v>
+      <c r="B380" s="95" t="s">
+        <v>447</v>
       </c>
       <c r="C380" s="63" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="381" spans="1:3">
+    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A381" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="B381" s="95">
-        <v>80000951</v>
+      <c r="B381" s="95" t="s">
+        <v>448</v>
       </c>
       <c r="C381" s="63" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="382" spans="1:3">
+    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A382" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="B382" s="95">
-        <v>80000953</v>
+      <c r="B382" s="95" t="s">
+        <v>449</v>
       </c>
       <c r="C382" s="63" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="383" spans="1:3">
+    <row r="383" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A383" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="B383" s="95">
-        <v>80000998</v>
+      <c r="B383" s="95" t="s">
+        <v>450</v>
       </c>
       <c r="C383" s="63" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="384" spans="1:3">
+    <row r="384" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A384" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="B384" s="95">
-        <v>80001004</v>
+      <c r="B384" s="95" t="s">
+        <v>451</v>
       </c>
       <c r="C384" s="63" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="385" spans="1:3">
+    <row r="385" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A385" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="B385" s="95">
-        <v>80001011</v>
+      <c r="B385" s="95" t="s">
+        <v>452</v>
       </c>
       <c r="C385" s="63" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="386" spans="1:3">
+    <row r="386" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A386" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="B386" s="95">
-        <v>80001020</v>
+      <c r="B386" s="95" t="s">
+        <v>453</v>
       </c>
       <c r="C386" s="63" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="387" spans="1:3">
+    <row r="387" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A387" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="B387" s="95">
-        <v>80001021</v>
+      <c r="B387" s="95" t="s">
+        <v>454</v>
       </c>
       <c r="C387" s="63" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="388" spans="1:3">
+    <row r="388" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A388" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="B388" s="95">
-        <v>80001023</v>
+      <c r="B388" s="95" t="s">
+        <v>455</v>
       </c>
       <c r="C388" s="63" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="389" spans="1:3">
+    <row r="389" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A389" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="B389" s="95">
-        <v>80001036</v>
+      <c r="B389" s="95" t="s">
+        <v>456</v>
       </c>
       <c r="C389" s="63" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="390" spans="1:3">
+    <row r="390" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A390" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="B390" s="95">
-        <v>80001046</v>
+      <c r="B390" s="95" t="s">
+        <v>457</v>
       </c>
       <c r="C390" s="63" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="391" spans="1:3">
+    <row r="391" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A391" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="B391" s="95">
-        <v>80001197</v>
+      <c r="B391" s="95" t="s">
+        <v>458</v>
       </c>
       <c r="C391" s="63" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="392" spans="1:3">
+    <row r="392" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A392" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="B392" s="95">
-        <v>80001200</v>
+      <c r="B392" s="95" t="s">
+        <v>459</v>
       </c>
       <c r="C392" s="63" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="393" spans="1:3">
+    <row r="393" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A393" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="B393" s="95">
-        <v>80001201</v>
+      <c r="B393" s="95" t="s">
+        <v>460</v>
       </c>
       <c r="C393" s="63" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="394" spans="1:3">
+    <row r="394" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A394" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="B394" s="95">
-        <v>80001202</v>
+      <c r="B394" s="95" t="s">
+        <v>461</v>
       </c>
       <c r="C394" s="63" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="395" spans="1:3">
+    <row r="395" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A395" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="B395" s="95">
-        <v>80001207</v>
+      <c r="B395" s="95" t="s">
+        <v>462</v>
       </c>
       <c r="C395" s="63" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="396" spans="1:3">
+    <row r="396" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A396" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="B396" s="95">
-        <v>80001231</v>
+      <c r="B396" s="95" t="s">
+        <v>463</v>
       </c>
       <c r="C396" s="63" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="397" spans="1:3">
+    <row r="397" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A397" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="B397" s="95">
-        <v>80001241</v>
+      <c r="B397" s="95" t="s">
+        <v>464</v>
       </c>
       <c r="C397" s="63" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="398" spans="1:3">
+    <row r="398" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A398" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="B398" s="95">
-        <v>80001242</v>
+      <c r="B398" s="95" t="s">
+        <v>465</v>
       </c>
       <c r="C398" s="63" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="399" spans="1:3">
+    <row r="399" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A399" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="B399" s="95">
-        <v>80001401</v>
+      <c r="B399" s="95" t="s">
+        <v>466</v>
       </c>
       <c r="C399" s="63" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="400" spans="1:3">
+    <row r="400" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A400" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="B400" s="95">
-        <v>80001402</v>
+      <c r="B400" s="95" t="s">
+        <v>467</v>
       </c>
       <c r="C400" s="63" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="401" spans="1:3">
+    <row r="401" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A401" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="B401" s="95">
-        <v>80001435</v>
+      <c r="B401" s="95" t="s">
+        <v>468</v>
       </c>
       <c r="C401" s="63" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="402" spans="1:3">
+    <row r="402" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A402" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="B402" s="95">
-        <v>80001443</v>
+      <c r="B402" s="95" t="s">
+        <v>469</v>
       </c>
       <c r="C402" s="63" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="403" spans="1:3">
+    <row r="403" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A403" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="B403" s="95">
-        <v>80001445</v>
+      <c r="B403" s="95" t="s">
+        <v>470</v>
       </c>
       <c r="C403" s="63" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="404" spans="1:3">
+    <row r="404" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A404" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="B404" s="95">
-        <v>80001446</v>
+      <c r="B404" s="95" t="s">
+        <v>471</v>
       </c>
       <c r="C404" s="63" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="405" spans="1:3">
+    <row r="405" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A405" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="B405" s="95">
-        <v>80001447</v>
+      <c r="B405" s="95" t="s">
+        <v>472</v>
       </c>
       <c r="C405" s="63" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="406" spans="1:3">
+    <row r="406" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A406" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="B406" s="95">
-        <v>80001448</v>
+      <c r="B406" s="95" t="s">
+        <v>473</v>
       </c>
       <c r="C406" s="63" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="407" spans="1:3">
+    <row r="407" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A407" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="B407" s="95">
-        <v>80001449</v>
+      <c r="B407" s="95" t="s">
+        <v>474</v>
       </c>
       <c r="C407" s="63" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="408" spans="1:3">
+    <row r="408" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A408" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="B408" s="95">
-        <v>80001455</v>
+      <c r="B408" s="95" t="s">
+        <v>475</v>
       </c>
       <c r="C408" s="63" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="409" spans="1:3">
+    <row r="409" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A409" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="B409" s="95">
-        <v>80001456</v>
+      <c r="B409" s="95" t="s">
+        <v>476</v>
       </c>
       <c r="C409" s="63" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="410" spans="1:3">
+    <row r="410" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A410" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="B410" s="95">
-        <v>80001633</v>
+      <c r="B410" s="95" t="s">
+        <v>477</v>
       </c>
       <c r="C410" s="63" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="411" spans="1:3">
+    <row r="411" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A411" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="B411" s="95">
-        <v>80001695</v>
+      <c r="B411" s="95" t="s">
+        <v>478</v>
       </c>
       <c r="C411" s="63" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="412" spans="1:3">
+    <row r="412" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A412" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="B412" s="95">
-        <v>80001707</v>
+      <c r="B412" s="95" t="s">
+        <v>480</v>
       </c>
       <c r="C412" s="63" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="413" spans="1:3">
+    <row r="413" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A413" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="B413" s="95">
-        <v>80001718</v>
+      <c r="B413" s="95" t="s">
+        <v>479</v>
       </c>
       <c r="C413" s="63" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="414" spans="1:3">
+    <row r="414" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A414" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="B414" s="95">
-        <v>80001751</v>
+      <c r="B414" s="95" t="s">
+        <v>481</v>
       </c>
       <c r="C414" s="63" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="415" spans="1:3">
+    <row r="415" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A415" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="B415" s="95">
-        <v>80001753</v>
+      <c r="B415" s="95" t="s">
+        <v>482</v>
       </c>
       <c r="C415" s="63" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="416" spans="1:3">
+    <row r="416" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A416" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="B416" s="95">
-        <v>80001754</v>
+      <c r="B416" s="95" t="s">
+        <v>483</v>
       </c>
       <c r="C416" s="63" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="417" spans="1:3">
+    <row r="417" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A417" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="B417" s="95">
-        <v>80001755</v>
+      <c r="B417" s="95" t="s">
+        <v>484</v>
       </c>
       <c r="C417" s="63" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="418" spans="1:3">
+    <row r="418" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A418" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="B418" s="95">
-        <v>80001756</v>
+      <c r="B418" s="95" t="s">
+        <v>485</v>
       </c>
       <c r="C418" s="63" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="419" spans="1:3">
+    <row r="419" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A419" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="B419" s="95">
-        <v>80001757</v>
+      <c r="B419" s="95" t="s">
+        <v>486</v>
       </c>
       <c r="C419" s="63" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="420" spans="1:3">
+    <row r="420" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A420" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="B420" s="95">
-        <v>80001758</v>
+      <c r="B420" s="95" t="s">
+        <v>487</v>
       </c>
       <c r="C420" s="63" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="421" spans="1:3">
+    <row r="421" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A421" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="B421" s="95">
-        <v>80001759</v>
+      <c r="B421" s="95" t="s">
+        <v>488</v>
       </c>
       <c r="C421" s="63" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="422" spans="1:3">
+    <row r="422" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A422" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="B422" s="95">
-        <v>80001760</v>
+      <c r="B422" s="95" t="s">
+        <v>489</v>
       </c>
       <c r="C422" s="63" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="423" spans="1:3">
+    <row r="423" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A423" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="B423" s="95">
-        <v>80001762</v>
+      <c r="B423" s="95" t="s">
+        <v>490</v>
       </c>
       <c r="C423" s="63" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="424" spans="1:3">
+    <row r="424" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A424" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="B424" s="95">
-        <v>80001763</v>
+      <c r="B424" s="95" t="s">
+        <v>491</v>
       </c>
       <c r="C424" s="63" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="425" spans="1:3">
+    <row r="425" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A425" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="B425" s="95">
-        <v>80001765</v>
+      <c r="B425" s="95" t="s">
+        <v>492</v>
       </c>
       <c r="C425" s="63" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="426" spans="1:3">
+    <row r="426" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A426" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="B426" s="95">
-        <v>80001766</v>
+      <c r="B426" s="95" t="s">
+        <v>493</v>
       </c>
       <c r="C426" s="63" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="427" spans="1:3">
+    <row r="427" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A427" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="B427" s="95">
-        <v>80001767</v>
+      <c r="B427" s="95" t="s">
+        <v>494</v>
       </c>
       <c r="C427" s="63" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="428" spans="1:3">
+    <row r="428" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A428" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="B428" s="95">
-        <v>80001768</v>
+      <c r="B428" s="95" t="s">
+        <v>495</v>
       </c>
       <c r="C428" s="63" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="429" spans="1:3">
+    <row r="429" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A429" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="B429" s="95">
-        <v>80001769</v>
+      <c r="B429" s="95" t="s">
+        <v>496</v>
       </c>
       <c r="C429" s="63" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="430" spans="1:3">
+    <row r="430" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A430" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="B430" s="95">
-        <v>80001770</v>
+      <c r="B430" s="95" t="s">
+        <v>497</v>
       </c>
       <c r="C430" s="63" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="431" spans="1:3">
+    <row r="431" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A431" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="B431" s="95">
-        <v>80001771</v>
+      <c r="B431" s="95" t="s">
+        <v>498</v>
       </c>
       <c r="C431" s="63" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="432" spans="1:3">
+    <row r="432" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A432" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="B432" s="95">
-        <v>80001772</v>
+      <c r="B432" s="95" t="s">
+        <v>499</v>
       </c>
       <c r="C432" s="63" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="433" spans="1:3">
+    <row r="433" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A433" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="B433" s="95">
-        <v>80001773</v>
+      <c r="B433" s="95" t="s">
+        <v>500</v>
       </c>
       <c r="C433" s="63" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="434" spans="1:3">
+    <row r="434" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A434" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="B434" s="95">
-        <v>80001774</v>
+      <c r="B434" s="95" t="s">
+        <v>501</v>
       </c>
       <c r="C434" s="63" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="435" spans="1:3">
+    <row r="435" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A435" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="B435" s="95">
-        <v>80001775</v>
+      <c r="B435" s="95" t="s">
+        <v>502</v>
       </c>
       <c r="C435" s="63" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="436" spans="1:3">
+    <row r="436" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A436" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="B436" s="95">
-        <v>80001776</v>
+      <c r="B436" s="95" t="s">
+        <v>503</v>
       </c>
       <c r="C436" s="63" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="437" spans="1:3">
+    <row r="437" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A437" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="B437" s="95">
-        <v>80001777</v>
+      <c r="B437" s="95" t="s">
+        <v>504</v>
       </c>
       <c r="C437" s="63" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="438" spans="1:3">
+    <row r="438" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A438" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="B438" s="95">
-        <v>80001778</v>
+      <c r="B438" s="95" t="s">
+        <v>505</v>
       </c>
       <c r="C438" s="63" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="439" spans="1:3">
+    <row r="439" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A439" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="B439" s="95">
-        <v>80001779</v>
+      <c r="B439" s="95" t="s">
+        <v>506</v>
       </c>
       <c r="C439" s="63" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="440" spans="1:3">
+    <row r="440" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A440" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="B440" s="95">
-        <v>80001780</v>
+      <c r="B440" s="95" t="s">
+        <v>507</v>
       </c>
       <c r="C440" s="63" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="441" spans="1:3">
+    <row r="441" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A441" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="B441" s="95">
-        <v>80001781</v>
+      <c r="B441" s="95" t="s">
+        <v>508</v>
       </c>
       <c r="C441" s="63" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="442" spans="1:3">
+    <row r="442" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A442" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="B442" s="95">
-        <v>80001782</v>
+      <c r="B442" s="95" t="s">
+        <v>509</v>
       </c>
       <c r="C442" s="63" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="443" spans="1:3">
+    <row r="443" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A443" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="B443" s="95">
-        <v>80001783</v>
+      <c r="B443" s="95" t="s">
+        <v>510</v>
       </c>
       <c r="C443" s="63" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="444" spans="1:3">
+    <row r="444" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A444" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="B444" s="95">
-        <v>80001784</v>
+      <c r="B444" s="95" t="s">
+        <v>511</v>
       </c>
       <c r="C444" s="63" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="445" spans="1:3">
+    <row r="445" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A445" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="B445" s="95">
-        <v>80001785</v>
+      <c r="B445" s="95" t="s">
+        <v>512</v>
       </c>
       <c r="C445" s="63" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="446" spans="1:3">
+    <row r="446" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A446" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="B446" s="95">
-        <v>80001786</v>
+      <c r="B446" s="95" t="s">
+        <v>513</v>
       </c>
       <c r="C446" s="63" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="447" spans="1:3">
+    <row r="447" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A447" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="B447" s="95">
-        <v>80001787</v>
+      <c r="B447" s="95" t="s">
+        <v>514</v>
       </c>
       <c r="C447" s="63" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="448" spans="1:3">
+    <row r="448" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A448" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="B448" s="95">
-        <v>80001788</v>
+      <c r="B448" s="95" t="s">
+        <v>515</v>
       </c>
       <c r="C448" s="63" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="449" spans="1:3">
+    <row r="449" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A449" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="B449" s="95">
-        <v>80001789</v>
+      <c r="B449" s="95" t="s">
+        <v>516</v>
       </c>
       <c r="C449" s="63" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="450" spans="1:3">
+    <row r="450" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A450" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="B450" s="95">
-        <v>80001790</v>
+      <c r="B450" s="95" t="s">
+        <v>517</v>
       </c>
       <c r="C450" s="63" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="451" spans="1:3">
+    <row r="451" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A451" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="B451" s="95">
-        <v>80001791</v>
+      <c r="B451" s="95" t="s">
+        <v>518</v>
       </c>
       <c r="C451" s="63" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="452" spans="1:3">
+    <row r="452" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A452" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="B452" s="95">
-        <v>80001792</v>
+      <c r="B452" s="95" t="s">
+        <v>519</v>
       </c>
       <c r="C452" s="63" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="453" spans="1:3">
+    <row r="453" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A453" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="B453" s="95">
-        <v>80001793</v>
+      <c r="B453" s="95" t="s">
+        <v>520</v>
       </c>
       <c r="C453" s="63" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="454" spans="1:3">
+    <row r="454" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A454" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="B454" s="95">
-        <v>80001794</v>
+      <c r="B454" s="95" t="s">
+        <v>521</v>
       </c>
       <c r="C454" s="63" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="455" spans="1:3">
+    <row r="455" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A455" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="B455" s="95">
-        <v>80001795</v>
+      <c r="B455" s="95" t="s">
+        <v>522</v>
       </c>
       <c r="C455" s="63" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="456" spans="1:3">
+    <row r="456" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A456" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="B456" s="95">
-        <v>80001796</v>
+      <c r="B456" s="95" t="s">
+        <v>523</v>
       </c>
       <c r="C456" s="63" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="457" spans="1:3">
+    <row r="457" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A457" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="B457" s="95">
-        <v>80001797</v>
+      <c r="B457" s="95" t="s">
+        <v>525</v>
       </c>
       <c r="C457" s="63" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="458" spans="1:3">
+    <row r="458" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A458" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="B458" s="95">
-        <v>80001798</v>
+      <c r="B458" s="95" t="s">
+        <v>524</v>
       </c>
       <c r="C458" s="63" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="459" spans="1:3">
+    <row r="459" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A459" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="B459" s="95">
-        <v>80001799</v>
+      <c r="B459" s="95" t="s">
+        <v>526</v>
       </c>
       <c r="C459" s="63" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="460" spans="1:3">
+    <row r="460" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A460" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="B460" s="95">
-        <v>80001800</v>
+      <c r="B460" s="95" t="s">
+        <v>527</v>
       </c>
       <c r="C460" s="63" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="461" spans="1:3">
+    <row r="461" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A461" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="B461" s="95">
-        <v>80001801</v>
+      <c r="B461" s="95" t="s">
+        <v>528</v>
       </c>
       <c r="C461" s="63" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="462" spans="1:3">
+    <row r="462" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A462" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="B462" s="95">
-        <v>80001802</v>
+      <c r="B462" s="95" t="s">
+        <v>529</v>
       </c>
       <c r="C462" s="63" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="463" spans="1:3">
+    <row r="463" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A463" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="B463" s="95">
-        <v>80001803</v>
+      <c r="B463" s="95" t="s">
+        <v>530</v>
       </c>
       <c r="C463" s="63" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="464" spans="1:3">
+    <row r="464" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A464" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="B464" s="95">
-        <v>80001804</v>
+      <c r="B464" s="95" t="s">
+        <v>531</v>
       </c>
       <c r="C464" s="63" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="465" spans="1:3">
+    <row r="465" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A465" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="B465" s="95">
-        <v>80001805</v>
+      <c r="B465" s="95" t="s">
+        <v>532</v>
       </c>
       <c r="C465" s="63" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="466" spans="1:3">
+    <row r="466" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A466" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="B466" s="95">
-        <v>80001806</v>
+      <c r="B466" s="95" t="s">
+        <v>533</v>
       </c>
       <c r="C466" s="63" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="467" spans="1:3">
+    <row r="467" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A467" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="B467" s="95">
-        <v>80001807</v>
+      <c r="B467" s="95" t="s">
+        <v>534</v>
       </c>
       <c r="C467" s="63" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="468" spans="1:3">
+    <row r="468" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A468" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="B468" s="95">
-        <v>80001808</v>
+      <c r="B468" s="95" t="s">
+        <v>535</v>
       </c>
       <c r="C468" s="63" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="469" spans="1:3">
+    <row r="469" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A469" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="B469" s="95">
-        <v>80001809</v>
+      <c r="B469" s="95" t="s">
+        <v>536</v>
       </c>
       <c r="C469" s="63" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="470" spans="1:3">
+    <row r="470" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A470" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="B470" s="95">
-        <v>80001810</v>
+      <c r="B470" s="95" t="s">
+        <v>537</v>
       </c>
       <c r="C470" s="63" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="471" spans="1:3">
+    <row r="471" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A471" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="B471" s="95">
-        <v>80001811</v>
+      <c r="B471" s="95" t="s">
+        <v>538</v>
       </c>
       <c r="C471" s="63" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="472" spans="1:3">
+    <row r="472" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A472" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="B472" s="95">
-        <v>80001812</v>
+      <c r="B472" s="95" t="s">
+        <v>539</v>
       </c>
       <c r="C472" s="63" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="473" spans="1:3">
+    <row r="473" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A473" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="B473" s="95">
-        <v>80001816</v>
+      <c r="B473" s="95" t="s">
+        <v>540</v>
       </c>
       <c r="C473" s="63" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="474" spans="1:3">
+    <row r="474" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A474" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="B474" s="95">
-        <v>80001817</v>
+      <c r="B474" s="95" t="s">
+        <v>541</v>
       </c>
       <c r="C474" s="63" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="475" spans="1:3">
+    <row r="475" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A475" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="B475" s="95">
-        <v>80001818</v>
+      <c r="B475" s="95" t="s">
+        <v>542</v>
       </c>
       <c r="C475" s="63" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="476" spans="1:3">
+    <row r="476" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A476" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="B476" s="95">
-        <v>80001819</v>
+      <c r="B476" s="95" t="s">
+        <v>543</v>
       </c>
       <c r="C476" s="63" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="477" spans="1:3">
+    <row r="477" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A477" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="B477" s="95">
-        <v>80001821</v>
+      <c r="B477" s="95" t="s">
+        <v>544</v>
       </c>
       <c r="C477" s="63" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="478" spans="1:3">
+    <row r="478" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A478" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="B478" s="95">
-        <v>80001822</v>
+      <c r="B478" s="95" t="s">
+        <v>545</v>
       </c>
       <c r="C478" s="63" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="479" spans="1:3">
+    <row r="479" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A479" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="B479" s="95">
-        <v>80001835</v>
+      <c r="B479" s="95" t="s">
+        <v>546</v>
       </c>
       <c r="C479" s="63" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="480" spans="1:3">
+    <row r="480" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A480" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="B480" s="95">
-        <v>80001837</v>
+      <c r="B480" s="95" t="s">
+        <v>547</v>
       </c>
       <c r="C480" s="63" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="481" spans="1:3">
+    <row r="481" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A481" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="B481" s="95">
-        <v>80001970</v>
+      <c r="B481" s="95" t="s">
+        <v>548</v>
       </c>
       <c r="C481" s="63" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="482" spans="1:3">
+    <row r="482" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A482" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="B482" s="95">
-        <v>80001972</v>
+      <c r="B482" s="95" t="s">
+        <v>549</v>
       </c>
       <c r="C482" s="63" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="483" spans="1:3">
+    <row r="483" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A483" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="B483" s="95">
-        <v>80001973</v>
+      <c r="B483" s="95" t="s">
+        <v>550</v>
       </c>
       <c r="C483" s="63" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="484" spans="1:3">
+    <row r="484" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A484" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="B484" s="95">
-        <v>80001974</v>
+      <c r="B484" s="95" t="s">
+        <v>551</v>
       </c>
       <c r="C484" s="63" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="485" spans="1:3">
+    <row r="485" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A485" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="B485" s="95">
-        <v>80001976</v>
+      <c r="B485" s="95" t="s">
+        <v>552</v>
       </c>
       <c r="C485" s="63" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="486" spans="1:3">
+    <row r="486" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A486" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="B486" s="95">
-        <v>80001978</v>
+      <c r="B486" s="95" t="s">
+        <v>553</v>
       </c>
       <c r="C486" s="63" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="487" spans="1:3">
+    <row r="487" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A487" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="B487" s="95">
-        <v>80001979</v>
+      <c r="B487" s="95" t="s">
+        <v>554</v>
       </c>
       <c r="C487" s="63" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="488" spans="1:3">
+    <row r="488" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A488" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="B488" s="95">
-        <v>80001981</v>
+      <c r="B488" s="95" t="s">
+        <v>555</v>
       </c>
       <c r="C488" s="63" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="489" spans="1:3">
+    <row r="489" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A489" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="B489" s="95">
-        <v>80001982</v>
+      <c r="B489" s="95" t="s">
+        <v>556</v>
       </c>
       <c r="C489" s="63" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="490" spans="1:3">
+    <row r="490" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A490" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="B490" s="95">
-        <v>80001984</v>
+      <c r="B490" s="95" t="s">
+        <v>557</v>
       </c>
       <c r="C490" s="63" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="491" spans="1:3">
+    <row r="491" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A491" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="B491" s="95">
-        <v>80001985</v>
+      <c r="B491" s="95" t="s">
+        <v>558</v>
       </c>
       <c r="C491" s="63" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="492" spans="1:3">
+    <row r="492" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A492" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="B492" s="95">
-        <v>80002079</v>
+      <c r="B492" s="95" t="s">
+        <v>559</v>
       </c>
       <c r="C492" s="63" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="493" spans="1:3">
+    <row r="493" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A493" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="B493" s="95">
-        <v>80002094</v>
+      <c r="B493" s="95" t="s">
+        <v>560</v>
       </c>
       <c r="C493" s="63" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="494" spans="1:3">
+    <row r="494" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A494" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="B494" s="95">
-        <v>80002096</v>
+      <c r="B494" s="95" t="s">
+        <v>561</v>
       </c>
       <c r="C494" s="63" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="495" spans="1:3">
+    <row r="495" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A495" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="B495" s="95">
-        <v>80002097</v>
+      <c r="B495" s="95" t="s">
+        <v>562</v>
       </c>
       <c r="C495" s="63" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="496" spans="1:3">
+    <row r="496" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A496" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="B496" s="95">
-        <v>80002098</v>
+      <c r="B496" s="95" t="s">
+        <v>563</v>
       </c>
       <c r="C496" s="63" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="497" spans="1:3">
+    <row r="497" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A497" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="B497" s="95">
-        <v>80002130</v>
+      <c r="B497" s="95" t="s">
+        <v>564</v>
       </c>
       <c r="C497" s="63" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="498" spans="1:3">
+    <row r="498" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A498" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="B498" s="95">
-        <v>80002131</v>
+      <c r="B498" s="95" t="s">
+        <v>565</v>
       </c>
       <c r="C498" s="63" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="499" spans="1:3">
+    <row r="499" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A499" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="B499" s="95">
-        <v>80002132</v>
+      <c r="B499" s="95" t="s">
+        <v>566</v>
       </c>
       <c r="C499" s="63" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="500" spans="1:3">
+    <row r="500" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A500" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="B500" s="95">
-        <v>80002263</v>
+      <c r="B500" s="95" t="s">
+        <v>567</v>
       </c>
       <c r="C500" s="63" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="501" spans="1:3">
+    <row r="501" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A501" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="B501" s="95">
-        <v>80002334</v>
+      <c r="B501" s="95" t="s">
+        <v>568</v>
       </c>
       <c r="C501" s="63" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="502" spans="1:3">
+    <row r="502" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A502" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="B502" s="95">
-        <v>80002490</v>
+      <c r="B502" s="95" t="s">
+        <v>569</v>
       </c>
       <c r="C502" s="63" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="503" spans="1:3">
+    <row r="503" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A503" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="B503" s="95">
-        <v>80002603</v>
+      <c r="B503" s="95" t="s">
+        <v>570</v>
       </c>
       <c r="C503" s="63" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="504" spans="1:3">
+    <row r="504" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A504" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="B504" s="95">
-        <v>80002604</v>
+      <c r="B504" s="95" t="s">
+        <v>571</v>
       </c>
       <c r="C504" s="63" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="505" spans="1:3">
+    <row r="505" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A505" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="B505" s="95">
-        <v>80002605</v>
+      <c r="B505" s="95" t="s">
+        <v>572</v>
       </c>
       <c r="C505" s="63" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="506" spans="1:3">
+    <row r="506" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A506" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="B506" s="95">
-        <v>80002606</v>
+      <c r="B506" s="95" t="s">
+        <v>573</v>
       </c>
       <c r="C506" s="63" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="507" spans="1:3">
+    <row r="507" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A507" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="B507" s="95">
-        <v>80002607</v>
+      <c r="B507" s="95" t="s">
+        <v>574</v>
       </c>
       <c r="C507" s="63" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="508" spans="1:3">
+    <row r="508" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A508" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="B508" s="95">
-        <v>80002608</v>
+      <c r="B508" s="95" t="s">
+        <v>575</v>
       </c>
       <c r="C508" s="63" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="509" spans="1:3">
+    <row r="509" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A509" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="B509" s="95">
-        <v>80002611</v>
+      <c r="B509" s="95" t="s">
+        <v>576</v>
       </c>
       <c r="C509" s="63" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="510" spans="1:3">
+    <row r="510" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A510" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="B510" s="95">
-        <v>80002831</v>
+      <c r="B510" s="95" t="s">
+        <v>577</v>
       </c>
       <c r="C510" s="63" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="511" spans="1:3">
+    <row r="511" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A511" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="B511" s="95">
-        <v>80002845</v>
+      <c r="B511" s="95" t="s">
+        <v>578</v>
       </c>
       <c r="C511" s="63" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="512" spans="1:3">
+    <row r="512" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A512" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="B512" s="95">
-        <v>80002847</v>
+      <c r="B512" s="95" t="s">
+        <v>579</v>
       </c>
       <c r="C512" s="63" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="513" spans="1:3">
+    <row r="513" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A513" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="B513" s="95">
-        <v>80002848</v>
+      <c r="B513" s="95" t="s">
+        <v>580</v>
       </c>
       <c r="C513" s="63" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="514" spans="1:3">
+    <row r="514" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A514" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="B514" s="95">
-        <v>80002849</v>
+      <c r="B514" s="95" t="s">
+        <v>581</v>
       </c>
       <c r="C514" s="63" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="515" spans="1:3">
+    <row r="515" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A515" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="B515" s="95">
-        <v>80002856</v>
+      <c r="B515" s="95" t="s">
+        <v>582</v>
       </c>
       <c r="C515" s="63" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="516" spans="1:3">
+    <row r="516" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A516" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="B516" s="95">
-        <v>80002874</v>
+      <c r="B516" s="95" t="s">
+        <v>583</v>
       </c>
       <c r="C516" s="63" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="517" spans="1:3">
+    <row r="517" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A517" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="B517" s="95">
-        <v>80002898</v>
+      <c r="B517" s="95" t="s">
+        <v>584</v>
       </c>
       <c r="C517" s="63" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="518" spans="1:3">
+    <row r="518" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A518" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="B518" s="95">
-        <v>80002927</v>
+      <c r="B518" s="95" t="s">
+        <v>585</v>
       </c>
       <c r="C518" s="63" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="519" spans="1:3">
+    <row r="519" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A519" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="B519" s="95">
-        <v>80002936</v>
+      <c r="B519" s="95" t="s">
+        <v>586</v>
       </c>
       <c r="C519" s="63" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="520" spans="1:3">
+    <row r="520" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A520" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="B520" s="95">
-        <v>80002937</v>
+      <c r="B520" s="95" t="s">
+        <v>587</v>
       </c>
       <c r="C520" s="63" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="521" spans="1:3">
+    <row r="521" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A521" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="B521" s="95">
-        <v>80002938</v>
+      <c r="B521" s="95" t="s">
+        <v>588</v>
       </c>
       <c r="C521" s="63" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="522" spans="1:3">
+    <row r="522" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A522" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="B522" s="95">
-        <v>80002989</v>
+      <c r="B522" s="95" t="s">
+        <v>589</v>
       </c>
       <c r="C522" s="63" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="523" spans="1:3">
+    <row r="523" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A523" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="B523" s="95">
-        <v>80002992</v>
+      <c r="B523" s="95" t="s">
+        <v>590</v>
       </c>
       <c r="C523" s="63" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="524" spans="1:3">
+    <row r="524" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A524" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="B524" s="95">
-        <v>80003009</v>
+      <c r="B524" s="95" t="s">
+        <v>591</v>
       </c>
       <c r="C524" s="63" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="525" spans="1:3">
+    <row r="525" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A525" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="B525" s="95">
-        <v>80003014</v>
+      <c r="B525" s="95" t="s">
+        <v>592</v>
       </c>
       <c r="C525" s="63" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="526" spans="1:3">
+    <row r="526" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A526" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="B526" s="95">
-        <v>80003090</v>
+      <c r="B526" s="95" t="s">
+        <v>593</v>
       </c>
       <c r="C526" s="63" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="527" spans="1:3">
+    <row r="527" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A527" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="B527" s="95">
-        <v>80003091</v>
+      <c r="B527" s="95" t="s">
+        <v>594</v>
       </c>
       <c r="C527" s="63" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="528" spans="1:3">
+    <row r="528" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A528" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="B528" s="95">
-        <v>80003273</v>
+      <c r="B528" s="95" t="s">
+        <v>595</v>
       </c>
       <c r="C528" s="63" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="529" spans="1:3">
+    <row r="529" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A529" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="B529" s="95">
-        <v>80003281</v>
+      <c r="B529" s="95" t="s">
+        <v>596</v>
       </c>
       <c r="C529" s="63" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="530" spans="1:3">
+    <row r="530" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A530" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="B530" s="95">
-        <v>80003282</v>
+      <c r="B530" s="95" t="s">
+        <v>597</v>
       </c>
       <c r="C530" s="63" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="531" spans="1:3">
+    <row r="531" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A531" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="B531" s="95">
-        <v>80003283</v>
+      <c r="B531" s="95" t="s">
+        <v>598</v>
       </c>
       <c r="C531" s="63" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="532" spans="1:3">
+    <row r="532" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A532" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="B532" s="95">
-        <v>80003290</v>
+      <c r="B532" s="95" t="s">
+        <v>599</v>
       </c>
       <c r="C532" s="63" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="533" spans="1:3">
+    <row r="533" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A533" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="B533" s="95">
-        <v>80003303</v>
+      <c r="B533" s="95" t="s">
+        <v>600</v>
       </c>
       <c r="C533" s="63" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="534" spans="1:3">
+    <row r="534" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A534" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="B534" s="95">
-        <v>80003336</v>
+      <c r="B534" s="95" t="s">
+        <v>601</v>
       </c>
       <c r="C534" s="63" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="535" spans="1:3">
+    <row r="535" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A535" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="B535" s="95">
-        <v>80003406</v>
+      <c r="B535" s="95" t="s">
+        <v>602</v>
       </c>
       <c r="C535" s="63" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="536" spans="1:3">
+    <row r="536" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A536" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="B536" s="95">
-        <v>80003407</v>
+      <c r="B536" s="95" t="s">
+        <v>603</v>
       </c>
       <c r="C536" s="63" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="537" spans="1:3">
+    <row r="537" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A537" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="B537" s="95">
-        <v>80003432</v>
+      <c r="B537" s="95" t="s">
+        <v>604</v>
       </c>
       <c r="C537" s="63" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="538" spans="1:3">
+    <row r="538" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A538" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="B538" s="95">
-        <v>80003433</v>
+      <c r="B538" s="95" t="s">
+        <v>605</v>
       </c>
       <c r="C538" s="63" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="539" spans="1:3">
+    <row r="539" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A539" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="B539" s="95">
-        <v>80003532</v>
+      <c r="B539" s="95" t="s">
+        <v>606</v>
       </c>
       <c r="C539" s="63" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="540" spans="1:3">
+    <row r="540" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A540" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="B540" s="95">
-        <v>80003533</v>
+      <c r="B540" s="95" t="s">
+        <v>607</v>
       </c>
       <c r="C540" s="63" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="541" spans="1:3">
+    <row r="541" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A541" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="B541" s="95">
-        <v>80003534</v>
+      <c r="B541" s="95" t="s">
+        <v>608</v>
       </c>
       <c r="C541" s="63" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="542" spans="1:3">
+    <row r="542" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A542" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="B542" s="95">
-        <v>80003535</v>
+      <c r="B542" s="95" t="s">
+        <v>609</v>
       </c>
       <c r="C542" s="63" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="543" spans="1:3">
+    <row r="543" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A543" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="B543" s="95">
-        <v>80003536</v>
+      <c r="B543" s="95" t="s">
+        <v>610</v>
       </c>
       <c r="C543" s="63" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="544" spans="1:3">
+    <row r="544" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A544" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="B544" s="95">
-        <v>80003537</v>
+      <c r="B544" s="95" t="s">
+        <v>611</v>
       </c>
       <c r="C544" s="63" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="545" spans="1:3">
+    <row r="545" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A545" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="B545" s="95">
-        <v>80003562</v>
+      <c r="B545" s="95" t="s">
+        <v>612</v>
       </c>
       <c r="C545" s="63" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="546" spans="1:3">
+    <row r="546" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A546" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="B546" s="95">
-        <v>80003583</v>
+      <c r="B546" s="95" t="s">
+        <v>613</v>
       </c>
       <c r="C546" s="63" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="547" spans="1:3">
+    <row r="547" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A547" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="B547" s="95">
-        <v>80003628</v>
+      <c r="B547" s="95" t="s">
+        <v>614</v>
       </c>
       <c r="C547" s="63" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="548" spans="1:3">
+    <row r="548" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A548" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="B548" s="95">
-        <v>80003666</v>
+      <c r="B548" s="95" t="s">
+        <v>615</v>
       </c>
       <c r="C548" s="63" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="549" spans="1:3">
+    <row r="549" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A549" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="B549" s="95">
-        <v>80003671</v>
+      <c r="B549" s="95" t="s">
+        <v>616</v>
       </c>
       <c r="C549" s="63" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="550" spans="1:3">
+    <row r="550" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A550" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="B550" s="95">
-        <v>80003806</v>
+      <c r="B550" s="95" t="s">
+        <v>617</v>
       </c>
       <c r="C550" s="63" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="551" spans="1:3">
+    <row r="551" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A551" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="B551" s="95">
-        <v>80003807</v>
+      <c r="B551" s="95" t="s">
+        <v>618</v>
       </c>
       <c r="C551" s="63" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="552" spans="1:3">
+    <row r="552" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A552" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="B552" s="95">
-        <v>80003810</v>
+      <c r="B552" s="95" t="s">
+        <v>619</v>
       </c>
       <c r="C552" s="63" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="553" spans="1:3">
+    <row r="553" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A553" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="B553" s="95">
-        <v>80003811</v>
+      <c r="B553" s="95" t="s">
+        <v>620</v>
       </c>
       <c r="C553" s="63" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="554" spans="1:3">
+    <row r="554" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A554" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="B554" s="95">
-        <v>80003812</v>
+      <c r="B554" s="95" t="s">
+        <v>621</v>
       </c>
       <c r="C554" s="63" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="555" spans="1:3">
+    <row r="555" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A555" s="31"/>
-      <c r="B555" s="95">
-        <v>80003813</v>
+      <c r="B555" s="95" t="s">
+        <v>622</v>
       </c>
       <c r="C555" s="63" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="556" spans="1:3">
+    <row r="556" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A556" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="B556" s="95">
-        <v>80003850</v>
+      <c r="B556" s="95" t="s">
+        <v>623</v>
       </c>
       <c r="C556" s="63" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="557" spans="1:3">
+    <row r="557" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A557" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="B557" s="95">
-        <v>80003994</v>
+      <c r="B557" s="95" t="s">
+        <v>624</v>
       </c>
       <c r="C557" s="63" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="558" spans="1:3">
+    <row r="558" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A558" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="B558" s="95">
-        <v>80004030</v>
+      <c r="B558" s="95" t="s">
+        <v>625</v>
       </c>
       <c r="C558" s="63" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="559" spans="1:3">
+    <row r="559" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A559" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="B559" s="95">
-        <v>80004033</v>
+      <c r="B559" s="95" t="s">
+        <v>626</v>
       </c>
       <c r="C559" s="63" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="560" spans="1:3">
+    <row r="560" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A560" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="B560" s="95">
-        <v>80004115</v>
+      <c r="B560" s="95" t="s">
+        <v>627</v>
       </c>
       <c r="C560" s="63" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="561" spans="1:3">
+    <row r="561" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A561" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="B561" s="95">
-        <v>80004116</v>
+      <c r="B561" s="95" t="s">
+        <v>628</v>
       </c>
       <c r="C561" s="63" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="562" spans="1:3">
+    <row r="562" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A562" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="B562" s="95">
-        <v>80004117</v>
+      <c r="B562" s="95" t="s">
+        <v>629</v>
       </c>
       <c r="C562" s="63" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="563" spans="1:3">
+    <row r="563" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A563" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="B563" s="95">
-        <v>80004129</v>
+      <c r="B563" s="95" t="s">
+        <v>630</v>
       </c>
       <c r="C563" s="63" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="564" spans="1:3">
+    <row r="564" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A564" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="B564" s="95">
-        <v>80004130</v>
+      <c r="B564" s="95" t="s">
+        <v>631</v>
       </c>
       <c r="C564" s="63" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="565" spans="1:3">
+    <row r="565" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A565" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="B565" s="95">
-        <v>80004131</v>
+      <c r="B565" s="95" t="s">
+        <v>632</v>
       </c>
       <c r="C565" s="63" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="566" spans="1:3">
+    <row r="566" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A566" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="B566" s="95">
-        <v>80004132</v>
+      <c r="B566" s="95" t="s">
+        <v>633</v>
       </c>
       <c r="C566" s="63" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="567" spans="1:3">
+    <row r="567" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A567" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="B567" s="95">
-        <v>80004133</v>
+      <c r="B567" s="95" t="s">
+        <v>634</v>
       </c>
       <c r="C567" s="63" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="568" spans="1:3">
+    <row r="568" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A568" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="B568" s="95">
-        <v>80004134</v>
+      <c r="B568" s="95" t="s">
+        <v>635</v>
       </c>
       <c r="C568" s="63" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="569" spans="1:3">
+    <row r="569" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A569" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="B569" s="95">
-        <v>80004135</v>
+      <c r="B569" s="95" t="s">
+        <v>636</v>
       </c>
       <c r="C569" s="63" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="570" spans="1:3">
+    <row r="570" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A570" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="B570" s="95">
-        <v>80004136</v>
+      <c r="B570" s="95" t="s">
+        <v>637</v>
       </c>
       <c r="C570" s="63" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="571" spans="1:3">
+    <row r="571" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A571" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="B571" s="95">
-        <v>80004137</v>
+      <c r="B571" s="95" t="s">
+        <v>638</v>
       </c>
       <c r="C571" s="63" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="572" spans="1:3">
+    <row r="572" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A572" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="B572" s="95">
-        <v>80004138</v>
+      <c r="B572" s="95" t="s">
+        <v>639</v>
       </c>
       <c r="C572" s="63" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="573" spans="1:3">
+    <row r="573" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A573" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="B573" s="95">
-        <v>80004139</v>
+      <c r="B573" s="95" t="s">
+        <v>640</v>
       </c>
       <c r="C573" s="63" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="574" spans="1:3">
+    <row r="574" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A574" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="B574" s="95">
-        <v>80004140</v>
+      <c r="B574" s="95" t="s">
+        <v>641</v>
       </c>
       <c r="C574" s="63" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="575" spans="1:3">
+    <row r="575" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A575" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="B575" s="95">
-        <v>80004141</v>
+      <c r="B575" s="95" t="s">
+        <v>642</v>
       </c>
       <c r="C575" s="63" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="576" spans="1:3">
+    <row r="576" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A576" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="B576" s="95">
-        <v>80004143</v>
+      <c r="B576" s="95" t="s">
+        <v>643</v>
       </c>
       <c r="C576" s="63" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="577" spans="1:3">
+    <row r="577" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A577" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="B577" s="95">
-        <v>80004144</v>
+      <c r="B577" s="95" t="s">
+        <v>644</v>
       </c>
       <c r="C577" s="63" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="578" spans="1:3">
+    <row r="578" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A578" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="B578" s="95">
-        <v>80004145</v>
+      <c r="B578" s="95" t="s">
+        <v>645</v>
       </c>
       <c r="C578" s="63" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="579" spans="1:3">
+    <row r="579" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A579" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="B579" s="95">
-        <v>80004146</v>
+      <c r="B579" s="95" t="s">
+        <v>646</v>
       </c>
       <c r="C579" s="63" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="580" spans="1:3">
+    <row r="580" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A580" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="B580" s="95">
-        <v>80004149</v>
+      <c r="B580" s="95" t="s">
+        <v>647</v>
       </c>
       <c r="C580" s="63" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="581" spans="1:3">
+    <row r="581" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A581" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="B581" s="95">
-        <v>80004151</v>
+      <c r="B581" s="95" t="s">
+        <v>648</v>
       </c>
       <c r="C581" s="63" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="582" spans="1:3">
+    <row r="582" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A582" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="B582" s="95">
-        <v>80004152</v>
+      <c r="B582" s="95" t="s">
+        <v>649</v>
       </c>
       <c r="C582" s="63" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="583" spans="1:3">
+    <row r="583" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A583" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="B583" s="95">
-        <v>80004153</v>
+      <c r="B583" s="95" t="s">
+        <v>650</v>
       </c>
       <c r="C583" s="63" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="584" spans="1:3">
+    <row r="584" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A584" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="B584" s="95">
-        <v>80004154</v>
+      <c r="B584" s="95" t="s">
+        <v>651</v>
       </c>
       <c r="C584" s="63" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="585" spans="1:3">
+    <row r="585" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A585" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="B585" s="95">
-        <v>80004159</v>
+      <c r="B585" s="95" t="s">
+        <v>652</v>
       </c>
       <c r="C585" s="63" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="586" spans="1:3">
+    <row r="586" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A586" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="B586" s="95">
-        <v>80004165</v>
+      <c r="B586" s="95" t="s">
+        <v>653</v>
       </c>
       <c r="C586" s="63" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="587" spans="1:3" ht="15.75" thickBot="1">
+    <row r="587" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A587" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="B587" s="96">
-        <v>80004166</v>
+      <c r="B587" s="96" t="s">
+        <v>654</v>
       </c>
       <c r="C587" s="64" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="588" spans="1:3">
+    <row r="588" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A588" s="4" t="s">
         <v>69</v>
       </c>

--- a/list_eq.xlsx
+++ b/list_eq.xlsx
@@ -3058,8 +3058,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D588"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A205" workbookViewId="0">
-      <selection activeCell="B224" sqref="B224"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3069,7 +3069,7 @@
     <col min="3" max="3" width="35.28515625" style="33" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>2</v>
       </c>
@@ -3079,8 +3079,11 @@
       <c r="C1" s="34" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>3</v>
       </c>
@@ -3090,8 +3093,11 @@
       <c r="C2" s="35" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
@@ -3101,8 +3107,11 @@
       <c r="C3" s="35" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>5</v>
       </c>
@@ -3112,8 +3121,11 @@
       <c r="C4" s="35" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>6</v>
       </c>
@@ -3123,8 +3135,11 @@
       <c r="C5" s="35" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>7</v>
       </c>
@@ -3134,8 +3149,11 @@
       <c r="C6" s="35" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>8</v>
       </c>
@@ -3145,8 +3163,11 @@
       <c r="C7" s="35" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>9</v>
       </c>
@@ -3156,8 +3177,11 @@
       <c r="C8" s="35" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>10</v>
       </c>
@@ -3167,8 +3191,11 @@
       <c r="C9" s="35" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>11</v>
       </c>
@@ -3178,8 +3205,11 @@
       <c r="C10" s="35" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>12</v>
       </c>
@@ -3189,8 +3219,11 @@
       <c r="C11" s="35" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>13</v>
       </c>
@@ -3200,8 +3233,11 @@
       <c r="C12" s="35" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>14</v>
       </c>
@@ -3211,8 +3247,11 @@
       <c r="C13" s="35" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>15</v>
       </c>
@@ -3222,8 +3261,11 @@
       <c r="C14" s="35" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>16</v>
       </c>
@@ -3233,8 +3275,11 @@
       <c r="C15" s="36" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="12" t="s">
         <v>17</v>
       </c>
@@ -3244,8 +3289,11 @@
       <c r="C16" s="37" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="14" t="s">
         <v>17</v>
       </c>
@@ -3255,8 +3303,11 @@
       <c r="C17" s="38" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="12" t="s">
         <v>18</v>
       </c>
@@ -3266,8 +3317,11 @@
       <c r="C18" s="37" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="14" t="s">
         <v>19</v>
       </c>
@@ -3277,8 +3331,11 @@
       <c r="C19" s="38" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="11" t="s">
         <v>20</v>
       </c>
@@ -3288,8 +3345,11 @@
       <c r="C20" s="39" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
         <v>21</v>
       </c>
@@ -3299,8 +3359,11 @@
       <c r="C21" s="37" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
         <v>21</v>
       </c>
@@ -3310,8 +3373,11 @@
       <c r="C22" s="40" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="s">
         <v>21</v>
       </c>
@@ -3321,8 +3387,11 @@
       <c r="C23" s="40" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
         <v>21</v>
       </c>
@@ -3332,8 +3401,11 @@
       <c r="C24" s="40" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="25" t="s">
         <v>21</v>
       </c>
@@ -3343,8 +3415,11 @@
       <c r="C25" s="41" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
         <v>22</v>
       </c>
@@ -3354,8 +3429,11 @@
       <c r="C26" s="37" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="s">
         <v>22</v>
       </c>
@@ -3365,8 +3443,11 @@
       <c r="C27" s="40" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="13" t="s">
         <v>22</v>
       </c>
@@ -3376,8 +3457,11 @@
       <c r="C28" s="40" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="13" t="s">
         <v>22</v>
       </c>
@@ -3387,8 +3471,11 @@
       <c r="C29" s="40" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="13" t="s">
         <v>22</v>
       </c>
@@ -3398,8 +3485,11 @@
       <c r="C30" s="40" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="13" t="s">
         <v>22</v>
       </c>
@@ -3409,8 +3499,11 @@
       <c r="C31" s="40" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="13" t="s">
         <v>22</v>
       </c>
@@ -3420,8 +3513,11 @@
       <c r="C32" s="40" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="13" t="s">
         <v>22</v>
       </c>
@@ -3431,8 +3527,11 @@
       <c r="C33" s="40" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="13" t="s">
         <v>22</v>
       </c>
@@ -3442,8 +3541,11 @@
       <c r="C34" s="40" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="13" t="s">
         <v>22</v>
       </c>
@@ -3453,8 +3555,11 @@
       <c r="C35" s="40" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="13" t="s">
         <v>22</v>
       </c>
@@ -3464,8 +3569,11 @@
       <c r="C36" s="40" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="13" t="s">
         <v>22</v>
       </c>
@@ -3475,8 +3583,11 @@
       <c r="C37" s="40" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="13" t="s">
         <v>22</v>
       </c>
@@ -3486,8 +3597,11 @@
       <c r="C38" s="40" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="13" t="s">
         <v>22</v>
       </c>
@@ -3497,8 +3611,11 @@
       <c r="C39" s="40" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="13" t="s">
         <v>22</v>
       </c>
@@ -3508,8 +3625,11 @@
       <c r="C40" s="40" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="13" t="s">
         <v>22</v>
       </c>
@@ -3519,8 +3639,11 @@
       <c r="C41" s="40" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="13" t="s">
         <v>22</v>
       </c>
@@ -3530,8 +3653,11 @@
       <c r="C42" s="40" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="13" t="s">
         <v>22</v>
       </c>
@@ -3541,8 +3667,11 @@
       <c r="C43" s="40" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="13" t="s">
         <v>22</v>
       </c>
@@ -3552,8 +3681,11 @@
       <c r="C44" s="40" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="13" t="s">
         <v>22</v>
       </c>
@@ -3563,8 +3695,11 @@
       <c r="C45" s="40" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="13" t="s">
         <v>22</v>
       </c>
@@ -3574,8 +3709,11 @@
       <c r="C46" s="40" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="13" t="s">
         <v>22</v>
       </c>
@@ -3585,8 +3723,11 @@
       <c r="C47" s="40" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="13" t="s">
         <v>22</v>
       </c>
@@ -3596,8 +3737,11 @@
       <c r="C48" s="40" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="13" t="s">
         <v>22</v>
       </c>
@@ -3607,8 +3751,11 @@
       <c r="C49" s="40" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="14" t="s">
         <v>22</v>
       </c>
@@ -3618,8 +3765,11 @@
       <c r="C50" s="38" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="24" t="s">
         <v>23</v>
       </c>
@@ -3629,8 +3779,11 @@
       <c r="C51" s="42" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="12" t="s">
         <v>24</v>
       </c>
@@ -3640,8 +3793,11 @@
       <c r="C52" s="37" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="13" t="s">
         <v>24</v>
       </c>
@@ -3651,8 +3807,11 @@
       <c r="C53" s="40" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="13" t="s">
         <v>24</v>
       </c>
@@ -3662,8 +3821,11 @@
       <c r="C54" s="40" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="13" t="s">
         <v>24</v>
       </c>
@@ -3673,8 +3835,11 @@
       <c r="C55" s="40" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="13" t="s">
         <v>24</v>
       </c>
@@ -3684,8 +3849,11 @@
       <c r="C56" s="40" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="13" t="s">
         <v>24</v>
       </c>
@@ -3695,8 +3863,11 @@
       <c r="C57" s="40" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="13" t="s">
         <v>24</v>
       </c>
@@ -3706,8 +3877,11 @@
       <c r="C58" s="40" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="13" t="s">
         <v>24</v>
       </c>
@@ -3717,8 +3891,11 @@
       <c r="C59" s="40" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="13" t="s">
         <v>24</v>
       </c>
@@ -3728,8 +3905,11 @@
       <c r="C60" s="40" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="13" t="s">
         <v>24</v>
       </c>
@@ -3739,8 +3919,11 @@
       <c r="C61" s="40" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="13" t="s">
         <v>24</v>
       </c>
@@ -3750,8 +3933,11 @@
       <c r="C62" s="40" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="13" t="s">
         <v>24</v>
       </c>
@@ -3761,8 +3947,11 @@
       <c r="C63" s="40" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="14" t="s">
         <v>24</v>
       </c>
@@ -3772,8 +3961,11 @@
       <c r="C64" s="38" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="11" t="s">
         <v>25</v>
       </c>
@@ -3783,8 +3975,11 @@
       <c r="C65" s="39" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="8" t="s">
         <v>26</v>
       </c>
@@ -3794,8 +3989,11 @@
       <c r="C66" s="43" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="9" t="s">
         <v>26</v>
       </c>
@@ -3805,8 +4003,11 @@
       <c r="C67" s="44" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="9" t="s">
         <v>26</v>
       </c>
@@ -3816,8 +4017,11 @@
       <c r="C68" s="44" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="9" t="s">
         <v>26</v>
       </c>
@@ -3827,8 +4031,11 @@
       <c r="C69" s="44" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="9" t="s">
         <v>26</v>
       </c>
@@ -3838,8 +4045,11 @@
       <c r="C70" s="44" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="9" t="s">
         <v>26</v>
       </c>
@@ -3849,8 +4059,11 @@
       <c r="C71" s="44" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="9" t="s">
         <v>26</v>
       </c>
@@ -3860,8 +4073,11 @@
       <c r="C72" s="44" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="9" t="s">
         <v>26</v>
       </c>
@@ -3871,8 +4087,11 @@
       <c r="C73" s="44" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="9" t="s">
         <v>26</v>
       </c>
@@ -3882,8 +4101,11 @@
       <c r="C74" s="44" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="9" t="s">
         <v>26</v>
       </c>
@@ -3893,8 +4115,11 @@
       <c r="C75" s="44" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="9" t="s">
         <v>26</v>
       </c>
@@ -3904,8 +4129,11 @@
       <c r="C76" s="44" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="9" t="s">
         <v>26</v>
       </c>
@@ -3915,8 +4143,11 @@
       <c r="C77" s="44" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="9" t="s">
         <v>26</v>
       </c>
@@ -3926,8 +4157,11 @@
       <c r="C78" s="44" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="9" t="s">
         <v>26</v>
       </c>
@@ -3937,8 +4171,11 @@
       <c r="C79" s="44" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="9" t="s">
         <v>26</v>
       </c>
@@ -3948,8 +4185,11 @@
       <c r="C80" s="44" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="9" t="s">
         <v>26</v>
       </c>
@@ -3959,8 +4199,11 @@
       <c r="C81" s="44" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="10" t="s">
         <v>28</v>
       </c>
@@ -3970,8 +4213,11 @@
       <c r="C82" s="45" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="26" t="s">
         <v>29</v>
       </c>
@@ -3981,8 +4227,11 @@
       <c r="C83" s="46" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="18" t="s">
         <v>29</v>
       </c>
@@ -3992,8 +4241,11 @@
       <c r="C84" s="47" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="18" t="s">
         <v>29</v>
       </c>
@@ -4003,8 +4255,11 @@
       <c r="C85" s="47" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="18" t="s">
         <v>29</v>
       </c>
@@ -4014,8 +4269,11 @@
       <c r="C86" s="47" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="18" t="s">
         <v>29</v>
       </c>
@@ -4025,8 +4283,11 @@
       <c r="C87" s="47" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="18" t="s">
         <v>29</v>
       </c>
@@ -4036,8 +4297,11 @@
       <c r="C88" s="47" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="18" t="s">
         <v>29</v>
       </c>
@@ -4047,8 +4311,11 @@
       <c r="C89" s="47" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="18" t="s">
         <v>29</v>
       </c>
@@ -4058,8 +4325,11 @@
       <c r="C90" s="47" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="18" t="s">
         <v>29</v>
       </c>
@@ -4069,8 +4339,11 @@
       <c r="C91" s="47" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="92" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="19" t="s">
         <v>29</v>
       </c>
@@ -4080,8 +4353,11 @@
       <c r="C92" s="48" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="93" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="11" t="s">
         <v>30</v>
       </c>
@@ -4091,8 +4367,11 @@
       <c r="C93" s="49" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="94" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="15" t="s">
         <v>32</v>
       </c>
@@ -4102,8 +4381,11 @@
       <c r="C94" s="50" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="16" t="s">
         <v>32</v>
       </c>
@@ -4113,8 +4395,11 @@
       <c r="C95" s="51" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="16" t="s">
         <v>32</v>
       </c>
@@ -4124,8 +4409,11 @@
       <c r="C96" s="51" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="97" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="17" t="s">
         <v>47</v>
       </c>
@@ -4135,8 +4423,11 @@
       <c r="C97" s="52" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="20" t="s">
         <v>31</v>
       </c>
@@ -4146,8 +4437,11 @@
       <c r="C98" s="49" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="99" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="4" t="s">
         <v>33</v>
       </c>
@@ -4157,8 +4451,11 @@
       <c r="C99" s="53" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>33</v>
       </c>
@@ -4168,8 +4465,11 @@
       <c r="C100" s="54" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="101" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>34</v>
       </c>
@@ -4179,8 +4479,11 @@
       <c r="C101" s="54" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="102" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
         <v>34</v>
       </c>
@@ -4190,8 +4493,11 @@
       <c r="C102" s="54" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="103" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
         <v>34</v>
       </c>
@@ -4201,8 +4507,11 @@
       <c r="C103" s="54" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="104" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
         <v>34</v>
       </c>
@@ -4212,8 +4521,11 @@
       <c r="C104" s="54" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="105" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
         <v>35</v>
       </c>
@@ -4223,8 +4535,11 @@
       <c r="C105" s="54" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="106" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
         <v>36</v>
       </c>
@@ -4234,8 +4549,11 @@
       <c r="C106" s="54" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="107" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="3" t="s">
         <v>36</v>
       </c>
@@ -4245,8 +4563,11 @@
       <c r="C107" s="55" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="21" t="s">
         <v>37</v>
       </c>
@@ -4256,8 +4577,11 @@
       <c r="C108" s="56" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="22" t="s">
         <v>37</v>
       </c>
@@ -4267,8 +4591,11 @@
       <c r="C109" s="57" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="22" t="s">
         <v>37</v>
       </c>
@@ -4278,8 +4605,11 @@
       <c r="C110" s="57" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="22" t="s">
         <v>37</v>
       </c>
@@ -4289,8 +4619,11 @@
       <c r="C111" s="57" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="22" t="s">
         <v>38</v>
       </c>
@@ -4299,6 +4632,9 @@
       </c>
       <c r="C112" s="57" t="s">
         <v>50</v>
+      </c>
+      <c r="D112">
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
@@ -4311,6 +4647,9 @@
       <c r="C113" s="57" t="s">
         <v>50</v>
       </c>
+      <c r="D113">
+        <v>1</v>
+      </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="22" t="s">
@@ -4322,6 +4661,9 @@
       <c r="C114" s="57" t="s">
         <v>50</v>
       </c>
+      <c r="D114">
+        <v>1</v>
+      </c>
     </row>
     <row r="115" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="23" t="s">
@@ -4333,6 +4675,9 @@
       <c r="C115" s="58" t="s">
         <v>50</v>
       </c>
+      <c r="D115">
+        <v>1</v>
+      </c>
     </row>
     <row r="116" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="4" t="s">
@@ -4344,6 +4689,9 @@
       <c r="C116" s="53" t="s">
         <v>46</v>
       </c>
+      <c r="D116">
+        <v>1</v>
+      </c>
     </row>
     <row r="117" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
@@ -4355,6 +4703,9 @@
       <c r="C117" s="54" t="s">
         <v>46</v>
       </c>
+      <c r="D117">
+        <v>1</v>
+      </c>
     </row>
     <row r="118" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
@@ -4366,6 +4717,9 @@
       <c r="C118" s="54" t="s">
         <v>46</v>
       </c>
+      <c r="D118">
+        <v>1</v>
+      </c>
     </row>
     <row r="119" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
@@ -4377,6 +4731,9 @@
       <c r="C119" s="54" t="s">
         <v>46</v>
       </c>
+      <c r="D119">
+        <v>1</v>
+      </c>
     </row>
     <row r="120" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
@@ -4388,6 +4745,9 @@
       <c r="C120" s="54" t="s">
         <v>46</v>
       </c>
+      <c r="D120">
+        <v>1</v>
+      </c>
     </row>
     <row r="121" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
@@ -4399,6 +4759,9 @@
       <c r="C121" s="54" t="s">
         <v>46</v>
       </c>
+      <c r="D121">
+        <v>1</v>
+      </c>
     </row>
     <row r="122" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
@@ -4410,6 +4773,9 @@
       <c r="C122" s="54" t="s">
         <v>46</v>
       </c>
+      <c r="D122">
+        <v>1</v>
+      </c>
     </row>
     <row r="123" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
@@ -4421,6 +4787,9 @@
       <c r="C123" s="54" t="s">
         <v>46</v>
       </c>
+      <c r="D123">
+        <v>1</v>
+      </c>
     </row>
     <row r="124" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
@@ -4432,6 +4801,9 @@
       <c r="C124" s="54" t="s">
         <v>46</v>
       </c>
+      <c r="D124">
+        <v>1</v>
+      </c>
     </row>
     <row r="125" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
@@ -4443,6 +4815,9 @@
       <c r="C125" s="54" t="s">
         <v>46</v>
       </c>
+      <c r="D125">
+        <v>1</v>
+      </c>
     </row>
     <row r="126" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
@@ -4454,7 +4829,9 @@
       <c r="C126" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="D126" s="2"/>
+      <c r="D126">
+        <v>1</v>
+      </c>
     </row>
     <row r="127" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
@@ -4466,6 +4843,9 @@
       <c r="C127" s="54" t="s">
         <v>46</v>
       </c>
+      <c r="D127">
+        <v>1</v>
+      </c>
     </row>
     <row r="128" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
@@ -4477,6 +4857,9 @@
       <c r="C128" s="54" t="s">
         <v>46</v>
       </c>
+      <c r="D128">
+        <v>1</v>
+      </c>
     </row>
     <row r="129" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
@@ -4488,6 +4871,9 @@
       <c r="C129" s="54" t="s">
         <v>46</v>
       </c>
+      <c r="D129">
+        <v>1</v>
+      </c>
     </row>
     <row r="130" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A130" s="3" t="s">
@@ -4498,6 +4884,9 @@
       </c>
       <c r="C130" s="55" t="s">
         <v>46</v>
+      </c>
+      <c r="D130">
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
